--- a/blanco-meta/rest/SampleMethodTest.xlsx
+++ b/blanco-meta/rest/SampleMethodTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/rest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/rest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F44E524-3928-DD40-A9DE-4D0C88F47B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BED9F8-07D3-D940-8711-9FB9134E990E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -31,6 +31,7 @@
   <definedNames>
     <definedName name="isImport">config!$E$5:$E$6</definedName>
     <definedName name="isNullable">config!$F$5:$F$6</definedName>
+    <definedName name="qeryKind">config!$H$5:$H$7</definedName>
     <definedName name="Submit有無">config!$B$5:$B$6</definedName>
     <definedName name="Validate実装パターン">config!$A$5:$A$6</definedName>
     <definedName name="チェック種別">config!$D$5:$D$49</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="211">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2237,10 +2238,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>dapanda.api.sample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SampleMethodTest</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2257,10 +2254,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>dapanda\api\sample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>POSTメソッドの要求電文</t>
     <rPh sb="8" eb="10">
       <t>ヨウキュウ</t>
@@ -2323,6 +2316,69 @@
     <rPh sb="11" eb="13">
       <t>オウトウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>import { ApiBase } from "@/common/ApiBase"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Getリクエストバインド種別</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータ優先</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ユウセンド </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>BODY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>別名</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ベツメイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クエリ種別</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>dapanda.api.sample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dapanda\api\sample	</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3361,7 +3417,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3606,6 +3662,12 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="68" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4259,7 +4321,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D10" sqref="D10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4302,174 +4364,174 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="142" t="s">
+      <c r="B6" s="150"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="146"/>
+    </row>
+    <row r="7" spans="1:6" ht="91.5" customHeight="1">
+      <c r="A7" s="152" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="91.5" customHeight="1">
-      <c r="A7" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="143" t="s">
+      <c r="E7" s="148"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="146" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="144"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="142"/>
+      <c r="E8" s="146"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="142"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="146"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="142"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="146"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="132" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="132"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="132" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="132"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="132"/>
+      <c r="E15" s="136"/>
       <c r="F15" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="132"/>
+      <c r="E16" s="136"/>
       <c r="F16" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="178" t="s">
+      <c r="A18" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="179"/>
-      <c r="C18" s="180"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="184"/>
       <c r="D18" s="91" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="170"/>
       <c r="D19" s="77"/>
       <c r="E19" t="s">
         <v>134</v>
@@ -4487,15 +4549,15 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="175" t="s">
+      <c r="A21" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="176"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="177"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="181"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="78" t="s">
@@ -4543,28 +4605,28 @@
       <c r="C25"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="174" t="s">
+      <c r="A26" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="174"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="170"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="174"/>
       <c r="H27" s="82"/>
       <c r="I27" s="82"/>
       <c r="J27" s="82"/>
@@ -4575,12 +4637,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="93"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
       <c r="H28" s="89"/>
       <c r="I28" s="89"/>
       <c r="J28" s="89"/>
@@ -4591,12 +4653,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="94"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
       <c r="H29" s="89"/>
       <c r="I29" s="89"/>
       <c r="J29" s="89"/>
@@ -4607,12 +4669,12 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="95"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
       <c r="H30" s="89"/>
       <c r="I30" s="89"/>
       <c r="J30" s="89"/>
@@ -4625,28 +4687,28 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="173"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="177"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="157" t="s">
+      <c r="B33" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
       <c r="H33" s="82"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
@@ -4657,12 +4719,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="93"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -4673,12 +4735,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="94"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -4689,12 +4751,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="95"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
       <c r="H36" s="89"/>
       <c r="I36" s="89"/>
       <c r="J36" s="89"/>
@@ -4719,28 +4781,28 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="171" t="s">
+      <c r="A38" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="172"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="173"/>
+      <c r="B38" s="176"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="177"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="157" t="s">
+      <c r="B39" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
       <c r="H39" s="82"/>
       <c r="I39" s="82"/>
       <c r="J39" s="82"/>
@@ -4750,13 +4812,17 @@
       <c r="O39" s="88"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="93"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="161"/>
+      <c r="A40" s="93">
+        <v>1</v>
+      </c>
+      <c r="B40" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="165"/>
       <c r="H40" s="89"/>
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
@@ -4767,12 +4833,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="94"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="162"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="166"/>
       <c r="H41" s="89"/>
       <c r="I41" s="89"/>
       <c r="J41" s="89"/>
@@ -4783,12 +4849,12 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="95"/>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="163"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="167"/>
       <c r="H42" s="89"/>
       <c r="I42" s="89"/>
       <c r="J42" s="89"/>
@@ -4824,80 +4890,80 @@
       <c r="G44" s="109"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="138" t="s">
+      <c r="A45" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="167"/>
-      <c r="C45" s="138" t="s">
+      <c r="B45" s="171"/>
+      <c r="C45" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="139"/>
-      <c r="E45" s="140"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="144"/>
       <c r="F45" s="110" t="s">
         <v>155</v>
       </c>
       <c r="G45" s="109"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="133"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="137"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="141"/>
       <c r="F46" s="3"/>
       <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="133"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="137"/>
+      <c r="A47" s="137"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="141"/>
       <c r="F47" s="3"/>
       <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="133"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="137"/>
+      <c r="A48" s="137"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="141"/>
       <c r="F48" s="3"/>
       <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="133"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="137"/>
+      <c r="A49" s="137"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="141"/>
       <c r="F49" s="3"/>
       <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="133"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="137"/>
+      <c r="A50" s="137"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="141"/>
       <c r="F50" s="3"/>
       <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="133"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="137"/>
+      <c r="A51" s="137"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="141"/>
       <c r="F51" s="3"/>
       <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="149"/>
-      <c r="B52" s="150"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="156"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="158"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="160"/>
       <c r="F52" s="102"/>
       <c r="G52" s="111"/>
     </row>
@@ -5326,9 +5392,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -5340,7 +5408,7 @@
     <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:9" ht="19">
       <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
@@ -5350,14 +5418,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
@@ -5376,8 +5444,17 @@
       <c r="F4" s="36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
@@ -5394,8 +5471,17 @@
       <c r="F5" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
@@ -5408,8 +5494,15 @@
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="53"/>
+      <c r="H6" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="14"/>
       <c r="C7" s="11" t="s">
         <v>119</v>
@@ -5417,13 +5510,18 @@
       <c r="D7" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="133"/>
+      <c r="I7" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="C8" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="D10" s="3"/>
     </row>
   </sheetData>
@@ -5442,10 +5540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView topLeftCell="G34" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5458,48 +5556,48 @@
     <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="20.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="43.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.1640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="20.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.83203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" style="1"/>
-    <col min="31" max="31" width="9.1640625" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="16.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="1"/>
+    <col min="33" max="33" width="9.1640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19">
+    <row r="1" spans="1:19" ht="19">
       <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5507,7 +5605,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5518,18 +5616,18 @@
       </c>
       <c r="D6" s="105"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="103"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5539,17 +5637,17 @@
       </c>
       <c r="D8" s="101"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="43" t="s">
         <v>124</v>
       </c>
@@ -5557,7 +5655,7 @@
       <c r="C10" s="97"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="43" t="s">
         <v>125</v>
       </c>
@@ -5565,7 +5663,7 @@
       <c r="C11" s="97"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12" s="43" t="s">
         <v>126</v>
       </c>
@@ -5573,39 +5671,41 @@
       <c r="C12" s="97"/>
       <c r="D12" s="102"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="142"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="C13" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="146"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="31"/>
+      <c r="C14" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="146"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="132"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -5613,25 +5713,31 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="98" t="s">
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="99" t="s">
         <v>133</v>
       </c>
       <c r="B17" s="100"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="77" t="s">
+        <v>110</v>
+      </c>
       <c r="D17" t="s">
         <v>134</v>
       </c>
@@ -5647,8 +5753,10 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="107" t="s">
         <v>153</v>
       </c>
@@ -5669,252 +5777,272 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="6"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="174" t="s">
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="168" t="s">
+      <c r="B21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
+      <c r="M21"/>
+      <c r="N21"/>
       <c r="O21" s="82"/>
       <c r="P21" s="82"/>
       <c r="Q21" s="82"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="93"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="O22" s="89"/>
       <c r="P22" s="89"/>
-      <c r="R22"/>
-      <c r="S22"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
       <c r="T22"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22"/>
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="94"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
-      <c r="R23"/>
-      <c r="S23"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
       <c r="T23"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="95"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
       <c r="L24" s="82"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
       <c r="O24" s="89"/>
       <c r="P24" s="89"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
       <c r="T24"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="C25"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
       <c r="L25" s="82"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="171" t="s">
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="173"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="177"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
       <c r="L26" s="82"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
+      <c r="M27"/>
+      <c r="N27"/>
       <c r="O27" s="82"/>
       <c r="P27" s="82"/>
       <c r="Q27" s="82"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
       <c r="T28"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28"/>
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
-      <c r="R29"/>
-      <c r="S29"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
       <c r="T29"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29"/>
+      <c r="V29"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="158" t="s">
+      <c r="B30" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
       <c r="H30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
-      <c r="R30"/>
-      <c r="S30"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
       <c r="T30"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="94"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
       <c r="L31" s="82"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
       <c r="O31" s="89"/>
       <c r="P31" s="89"/>
-      <c r="R31"/>
-      <c r="S31"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
       <c r="T31"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="95"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -5924,11 +6052,13 @@
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
       <c r="P32" s="89"/>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
       <c r="T32"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -5941,105 +6071,111 @@
       <c r="J33" s="89"/>
       <c r="K33" s="89"/>
       <c r="L33" s="89"/>
-      <c r="M33"/>
-      <c r="N33"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="171" t="s">
+      <c r="S33"/>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="173"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="177"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
       <c r="L34" s="89"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
+      <c r="M35"/>
+      <c r="N35"/>
       <c r="O35" s="82"/>
       <c r="P35" s="82"/>
       <c r="Q35" s="82"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="93"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="181"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
       <c r="T36"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36"/>
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="94"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="182"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
-      <c r="R37"/>
-      <c r="S37"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
       <c r="T37"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="95"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="183"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="187"/>
       <c r="H38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
-      <c r="R38"/>
-      <c r="S38"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
       <c r="T38"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -6048,21 +6184,23 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="M39"/>
-      <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="S39"/>
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="6"/>
       <c r="I40" s="118"/>
       <c r="J40" s="118"/>
       <c r="K40" s="118"/>
       <c r="L40" s="118"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
@@ -6077,101 +6215,111 @@
       <c r="J41" s="119"/>
       <c r="K41" s="119"/>
       <c r="L41" s="119"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="184" t="s">
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="186" t="s">
+      <c r="C42" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="184" t="s">
+      <c r="D42" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="187" t="s">
+      <c r="E42" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="187" t="s">
+      <c r="F42" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="184" t="s">
+      <c r="G42" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="184" t="s">
+      <c r="H42" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="192" t="s">
+      <c r="I42" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="192" t="s">
+      <c r="J42" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="192" t="s">
+      <c r="K42" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="193" t="s">
+      <c r="L42" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="184" t="s">
+      <c r="M42" s="197" t="s">
+        <v>206</v>
+      </c>
+      <c r="N42" s="197" t="s">
+        <v>207</v>
+      </c>
+      <c r="O42" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N42" s="190" t="s">
+      <c r="P42" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="191"/>
-      <c r="P42" s="190" t="s">
+      <c r="Q42" s="195"/>
+      <c r="R42" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="191"/>
-      <c r="R42" s="30" t="s">
+      <c r="S42" s="195"/>
+      <c r="T42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="184" t="s">
+      <c r="U42" s="188" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="185"/>
-      <c r="B43" s="185"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="26" t="s">
+    <row r="43" spans="1:22">
+      <c r="A43" s="189"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="199"/>
+      <c r="P43" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O43" s="26" t="s">
+      <c r="Q43" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="R43" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q43" s="26" t="s">
+      <c r="S43" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="26" t="s">
+      <c r="T43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="185"/>
-    </row>
-    <row r="44" spans="1:20" ht="45">
+      <c r="U43" s="189"/>
+    </row>
+    <row r="44" spans="1:22" ht="45">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -6197,20 +6345,24 @@
       <c r="K44" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="L44" s="120"/>
-      <c r="M44" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="N44" s="19"/>
-      <c r="O44" s="28">
+      <c r="L44" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="M44" s="120"/>
+      <c r="N44" s="120" t="s">
+        <v>208</v>
+      </c>
+      <c r="O44" s="23"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="28">
         <v>254</v>
       </c>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="9"/>
-    </row>
-    <row r="45" spans="1:20" ht="370">
+      <c r="R44" s="22"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:22" ht="370">
       <c r="A45" s="10">
         <f>A44+1</f>
         <v>2</v>
@@ -6237,20 +6389,24 @@
       <c r="K45" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="L45" s="121"/>
-      <c r="M45" s="23" t="s">
+      <c r="L45" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="N45" s="19"/>
-      <c r="O45" s="28">
+      <c r="P45" s="19"/>
+      <c r="Q45" s="28">
         <v>50</v>
       </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="12"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="R45" s="19"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="10"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6263,15 +6419,17 @@
       <c r="J46" s="121"/>
       <c r="K46" s="128"/>
       <c r="L46" s="121"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="28"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="23"/>
       <c r="P46" s="19"/>
       <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="12"/>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="R46" s="19"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="12"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="14"/>
       <c r="B47" s="21"/>
       <c r="C47" s="15"/>
@@ -6284,203 +6442,265 @@
       <c r="J47" s="125"/>
       <c r="K47" s="125"/>
       <c r="L47" s="126"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="29"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="126"/>
+      <c r="O47" s="25"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="16"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="R47" s="21"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="16"/>
+    </row>
+    <row r="48" spans="1:22">
       <c r="I48" s="123"/>
       <c r="J48" s="123"/>
       <c r="K48" s="123"/>
       <c r="L48" s="123"/>
-    </row>
-    <row r="50" spans="9:12">
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+    </row>
+    <row r="50" spans="9:14">
       <c r="I50" s="123"/>
       <c r="J50" s="123"/>
       <c r="K50" s="123"/>
       <c r="L50" s="123"/>
-    </row>
-    <row r="52" spans="9:12">
+      <c r="M50" s="123"/>
+      <c r="N50" s="123"/>
+    </row>
+    <row r="52" spans="9:14">
       <c r="I52" s="123"/>
       <c r="J52" s="123"/>
       <c r="K52" s="123"/>
       <c r="L52" s="123"/>
-    </row>
-    <row r="58" spans="9:12">
+      <c r="M52" s="123"/>
+      <c r="N52" s="123"/>
+    </row>
+    <row r="58" spans="9:14">
       <c r="I58" s="82"/>
       <c r="J58" s="82"/>
       <c r="K58" s="82"/>
       <c r="L58" s="82"/>
-    </row>
-    <row r="59" spans="9:12">
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+    </row>
+    <row r="59" spans="9:14">
       <c r="I59" s="82"/>
       <c r="J59" s="82"/>
       <c r="K59" s="82"/>
       <c r="L59" s="82"/>
-    </row>
-    <row r="60" spans="9:12">
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+    </row>
+    <row r="60" spans="9:14">
       <c r="I60" s="82"/>
       <c r="J60" s="82"/>
       <c r="K60" s="82"/>
       <c r="L60" s="82"/>
-    </row>
-    <row r="61" spans="9:12">
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+    </row>
+    <row r="61" spans="9:14">
       <c r="I61" s="82"/>
       <c r="J61" s="82"/>
       <c r="K61" s="82"/>
       <c r="L61" s="82"/>
-    </row>
-    <row r="62" spans="9:12">
+      <c r="M61" s="82"/>
+      <c r="N61" s="82"/>
+    </row>
+    <row r="62" spans="9:14">
       <c r="I62" s="82"/>
       <c r="J62" s="82"/>
       <c r="K62" s="82"/>
       <c r="L62" s="82"/>
-    </row>
-    <row r="63" spans="9:12">
+      <c r="M62" s="82"/>
+      <c r="N62" s="82"/>
+    </row>
+    <row r="63" spans="9:14">
       <c r="I63" s="82"/>
       <c r="J63" s="82"/>
       <c r="K63" s="82"/>
       <c r="L63" s="82"/>
-    </row>
-    <row r="64" spans="9:12">
+      <c r="M63" s="82"/>
+      <c r="N63" s="82"/>
+    </row>
+    <row r="64" spans="9:14">
       <c r="I64" s="82"/>
       <c r="J64" s="82"/>
       <c r="K64" s="82"/>
       <c r="L64" s="82"/>
-    </row>
-    <row r="65" spans="9:12">
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+    </row>
+    <row r="65" spans="9:14">
       <c r="I65" s="82"/>
       <c r="J65" s="82"/>
       <c r="K65" s="82"/>
       <c r="L65" s="82"/>
-    </row>
-    <row r="66" spans="9:12">
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
+    </row>
+    <row r="66" spans="9:14">
       <c r="I66" s="82"/>
       <c r="J66" s="82"/>
       <c r="K66" s="82"/>
       <c r="L66" s="82"/>
-    </row>
-    <row r="67" spans="9:12">
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+    </row>
+    <row r="67" spans="9:14">
       <c r="I67" s="82"/>
       <c r="J67" s="82"/>
       <c r="K67" s="82"/>
       <c r="L67" s="82"/>
-    </row>
-    <row r="69" spans="9:12">
+      <c r="M67" s="82"/>
+      <c r="N67" s="82"/>
+    </row>
+    <row r="69" spans="9:14">
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
-    </row>
-    <row r="70" spans="9:12">
+      <c r="M69"/>
+      <c r="N69"/>
+    </row>
+    <row r="70" spans="9:14">
       <c r="I70" s="88"/>
       <c r="J70" s="88"/>
       <c r="K70" s="88"/>
       <c r="L70" s="88"/>
-    </row>
-    <row r="71" spans="9:12">
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+    </row>
+    <row r="71" spans="9:14">
       <c r="I71" s="88"/>
       <c r="J71" s="88"/>
       <c r="K71" s="88"/>
       <c r="L71" s="88"/>
-    </row>
-    <row r="72" spans="9:12">
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
+    </row>
+    <row r="72" spans="9:14">
       <c r="K72" s="123"/>
     </row>
-    <row r="73" spans="9:12">
+    <row r="73" spans="9:14">
       <c r="K73" s="123"/>
     </row>
-    <row r="76" spans="9:12">
+    <row r="76" spans="9:14">
       <c r="I76" s="123"/>
       <c r="J76" s="123"/>
       <c r="K76" s="123"/>
       <c r="L76" s="123"/>
-    </row>
-    <row r="78" spans="9:12">
+      <c r="M76" s="123"/>
+      <c r="N76" s="123"/>
+    </row>
+    <row r="78" spans="9:14">
       <c r="I78" s="123"/>
       <c r="J78" s="123"/>
       <c r="K78" s="123"/>
       <c r="L78" s="123"/>
-    </row>
-    <row r="80" spans="9:12">
+      <c r="M78" s="123"/>
+      <c r="N78" s="123"/>
+    </row>
+    <row r="80" spans="9:14">
       <c r="I80" s="123"/>
       <c r="J80" s="123"/>
       <c r="K80" s="123"/>
       <c r="L80" s="123"/>
-    </row>
-    <row r="86" spans="9:12">
+      <c r="M80" s="123"/>
+      <c r="N80" s="123"/>
+    </row>
+    <row r="86" spans="9:14">
       <c r="I86" s="82"/>
       <c r="J86" s="82"/>
       <c r="K86" s="82"/>
       <c r="L86" s="82"/>
-    </row>
-    <row r="87" spans="9:12">
+      <c r="M86" s="82"/>
+      <c r="N86" s="82"/>
+    </row>
+    <row r="87" spans="9:14">
       <c r="I87" s="82"/>
       <c r="J87" s="82"/>
       <c r="K87" s="82"/>
       <c r="L87" s="82"/>
-    </row>
-    <row r="88" spans="9:12">
+      <c r="M87" s="82"/>
+      <c r="N87" s="82"/>
+    </row>
+    <row r="88" spans="9:14">
       <c r="I88" s="82"/>
       <c r="J88" s="82"/>
       <c r="K88" s="82"/>
       <c r="L88" s="82"/>
-    </row>
-    <row r="89" spans="9:12">
+      <c r="M88" s="82"/>
+      <c r="N88" s="82"/>
+    </row>
+    <row r="89" spans="9:14">
       <c r="I89" s="82"/>
       <c r="J89" s="82"/>
       <c r="K89" s="82"/>
       <c r="L89" s="82"/>
-    </row>
-    <row r="90" spans="9:12">
+      <c r="M89" s="82"/>
+      <c r="N89" s="82"/>
+    </row>
+    <row r="90" spans="9:14">
       <c r="I90" s="82"/>
       <c r="J90" s="82"/>
       <c r="K90" s="82"/>
       <c r="L90" s="82"/>
-    </row>
-    <row r="91" spans="9:12">
+      <c r="M90" s="82"/>
+      <c r="N90" s="82"/>
+    </row>
+    <row r="91" spans="9:14">
       <c r="I91" s="82"/>
       <c r="J91" s="82"/>
       <c r="K91" s="82"/>
       <c r="L91" s="82"/>
-    </row>
-    <row r="92" spans="9:12">
+      <c r="M91" s="82"/>
+      <c r="N91" s="82"/>
+    </row>
+    <row r="92" spans="9:14">
       <c r="I92" s="82"/>
       <c r="J92" s="82"/>
       <c r="K92" s="82"/>
       <c r="L92" s="82"/>
-    </row>
-    <row r="93" spans="9:12">
+      <c r="M92" s="82"/>
+      <c r="N92" s="82"/>
+    </row>
+    <row r="93" spans="9:14">
       <c r="I93" s="82"/>
       <c r="J93" s="82"/>
       <c r="K93" s="82"/>
       <c r="L93" s="82"/>
-    </row>
-    <row r="94" spans="9:12">
+      <c r="M93" s="82"/>
+      <c r="N93" s="82"/>
+    </row>
+    <row r="94" spans="9:14">
       <c r="I94" s="82"/>
       <c r="J94" s="82"/>
       <c r="K94" s="82"/>
       <c r="L94" s="82"/>
-    </row>
-    <row r="95" spans="9:12">
+      <c r="M94" s="82"/>
+      <c r="N94" s="82"/>
+    </row>
+    <row r="95" spans="9:14">
       <c r="I95" s="82"/>
       <c r="J95" s="82"/>
       <c r="K95" s="82"/>
       <c r="L95" s="82"/>
+      <c r="M95" s="82"/>
+      <c r="N95" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="N42:O42"/>
+  <mergeCells count="39">
     <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="K42:K43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
     <mergeCell ref="L42:L43"/>
     <mergeCell ref="M42:M43"/>
     <mergeCell ref="B37:G37"/>
@@ -6510,10 +6730,11 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M44:M47" xr:uid="{AB985EA7-3C57-2F4F-B51E-ED9A1D5EF942}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44:O47" xr:uid="{AB985EA7-3C57-2F4F-B51E-ED9A1D5EF942}">
       <formula1>isNullable</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{10798CD7-FCFD-9D4A-80B7-AC521EB73BD8}">
@@ -6521,6 +6742,9 @@
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{49F84F07-3608-E246-B27D-D71A48717237}">
       <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:N47" xr:uid="{A24B0CC8-FFE2-C94E-B6B1-BEBD831E0C45}">
+      <formula1>qeryKind</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -6569,8 +6793,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6649,7 +6873,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="31"/>
       <c r="Q7"/>
@@ -6670,7 +6894,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" s="72"/>
     </row>
@@ -6679,30 +6903,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="142"/>
+      <c r="C10" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="142"/>
+      <c r="C11" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -6712,15 +6936,17 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="100"/>
-      <c r="C14" s="77"/>
+      <c r="C14" s="77" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" t="s">
         <v>134</v>
       </c>
@@ -6744,15 +6970,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -6762,14 +6988,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -6784,12 +7010,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -6804,12 +7030,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -6824,12 +7050,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -6852,15 +7078,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="173"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -6871,14 +7097,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -6892,14 +7118,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -6916,14 +7142,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -6940,14 +7166,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="163" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -6964,14 +7190,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -6983,12 +7209,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -7004,12 +7230,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -7044,29 +7270,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="171" t="s">
+      <c r="A31" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="173"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="177"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -7082,12 +7308,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="181"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -7103,12 +7329,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="182"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -7123,12 +7349,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="183"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -7190,76 +7416,76 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="187" t="s">
+      <c r="A39" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="191" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="187" t="s">
+      <c r="D39" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="187" t="s">
+      <c r="E39" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="187" t="s">
+      <c r="F39" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="187" t="s">
+      <c r="G39" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="187" t="s">
+      <c r="H39" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="200" t="s">
+      <c r="I39" s="204" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="202" t="s">
+      <c r="J39" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="K39" s="202" t="s">
+      <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="193" t="s">
+      <c r="L39" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="184" t="s">
+      <c r="M39" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="197" t="s">
+      <c r="N39" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="198"/>
-      <c r="P39" s="199" t="s">
+      <c r="O39" s="202"/>
+      <c r="P39" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="198"/>
+      <c r="Q39" s="202"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="187" t="s">
+      <c r="S39" s="191" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="196"/>
-      <c r="B40" s="196"/>
+      <c r="A40" s="200"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="196"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="203"/>
-      <c r="K40" s="203"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="195"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="208"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -7275,7 +7501,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="196"/>
+      <c r="S40" s="200"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -7559,10 +7785,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7575,48 +7801,48 @@
     <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="20.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="43.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.1640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="20.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.83203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" style="1"/>
-    <col min="31" max="31" width="9.1640625" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="16.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="1"/>
+    <col min="33" max="33" width="9.1640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19">
+    <row r="1" spans="1:19" ht="19">
       <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7624,7 +7850,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -7635,18 +7861,18 @@
       </c>
       <c r="D6" s="105"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D7" s="103"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -7656,7 +7882,7 @@
       </c>
       <c r="D8" s="101"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>123</v>
       </c>
@@ -7666,7 +7892,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="43" t="s">
         <v>124</v>
       </c>
@@ -7674,7 +7900,7 @@
       <c r="C10" s="97"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="43" t="s">
         <v>125</v>
       </c>
@@ -7682,7 +7908,7 @@
       <c r="C11" s="97"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12" s="43" t="s">
         <v>126</v>
       </c>
@@ -7690,39 +7916,41 @@
       <c r="C12" s="97"/>
       <c r="D12" s="102"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="142"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="C13" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="146"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="31"/>
+      <c r="C14" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="146"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="132"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -7730,25 +7958,31 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="98" t="s">
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="99" t="s">
         <v>133</v>
       </c>
       <c r="B17" s="100"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="77" t="s">
+        <v>110</v>
+      </c>
       <c r="D17" t="s">
         <v>134</v>
       </c>
@@ -7764,8 +7998,10 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="107" t="s">
         <v>153</v>
       </c>
@@ -7786,252 +8022,272 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="6"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="174" t="s">
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="168" t="s">
+      <c r="B21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
+      <c r="M21"/>
+      <c r="N21"/>
       <c r="O21" s="82"/>
       <c r="P21" s="82"/>
       <c r="Q21" s="82"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="93"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="O22" s="89"/>
       <c r="P22" s="89"/>
-      <c r="R22"/>
-      <c r="S22"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
       <c r="T22"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22"/>
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="94"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
-      <c r="R23"/>
-      <c r="S23"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
       <c r="T23"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="95"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
       <c r="L24" s="82"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
       <c r="O24" s="89"/>
       <c r="P24" s="89"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
       <c r="T24"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="C25"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
       <c r="L25" s="82"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="171" t="s">
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="173"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="177"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
       <c r="L26" s="82"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
+      <c r="M27"/>
+      <c r="N27"/>
       <c r="O27" s="82"/>
       <c r="P27" s="82"/>
       <c r="Q27" s="82"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
       <c r="T28"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28"/>
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
-      <c r="R29"/>
-      <c r="S29"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
       <c r="T29"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29"/>
+      <c r="V29"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="158" t="s">
+      <c r="B30" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
       <c r="H30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
-      <c r="R30"/>
-      <c r="S30"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
       <c r="T30"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="94"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
       <c r="L31" s="82"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
       <c r="O31" s="89"/>
       <c r="P31" s="89"/>
-      <c r="R31"/>
-      <c r="S31"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
       <c r="T31"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="95"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -8041,11 +8297,13 @@
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
       <c r="P32" s="89"/>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
       <c r="T32"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -8058,105 +8316,111 @@
       <c r="J33" s="89"/>
       <c r="K33" s="89"/>
       <c r="L33" s="89"/>
-      <c r="M33"/>
-      <c r="N33"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="171" t="s">
+      <c r="S33"/>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="173"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="177"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
       <c r="L34" s="89"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
+      <c r="M35"/>
+      <c r="N35"/>
       <c r="O35" s="82"/>
       <c r="P35" s="82"/>
       <c r="Q35" s="82"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="93"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="181"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
       <c r="T36"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36"/>
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="94"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="182"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
-      <c r="R37"/>
-      <c r="S37"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
       <c r="T37"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="95"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="183"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="187"/>
       <c r="H38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
-      <c r="R38"/>
-      <c r="S38"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
       <c r="T38"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -8165,21 +8429,23 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="M39"/>
-      <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="S39"/>
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="6"/>
       <c r="I40" s="118"/>
       <c r="J40" s="118"/>
       <c r="K40" s="118"/>
       <c r="L40" s="118"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
@@ -8194,101 +8460,111 @@
       <c r="J41" s="119"/>
       <c r="K41" s="119"/>
       <c r="L41" s="119"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="184" t="s">
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="186" t="s">
+      <c r="C42" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="184" t="s">
+      <c r="D42" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="187" t="s">
+      <c r="E42" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="187" t="s">
+      <c r="F42" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="184" t="s">
+      <c r="G42" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="184" t="s">
+      <c r="H42" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="192" t="s">
+      <c r="I42" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="192" t="s">
+      <c r="J42" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="192" t="s">
+      <c r="K42" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="193" t="s">
+      <c r="L42" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="184" t="s">
+      <c r="M42" s="197" t="s">
+        <v>206</v>
+      </c>
+      <c r="N42" s="197" t="s">
+        <v>207</v>
+      </c>
+      <c r="O42" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N42" s="190" t="s">
+      <c r="P42" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="191"/>
-      <c r="P42" s="190" t="s">
+      <c r="Q42" s="195"/>
+      <c r="R42" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="191"/>
-      <c r="R42" s="30" t="s">
+      <c r="S42" s="195"/>
+      <c r="T42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="184" t="s">
+      <c r="U42" s="188" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="185"/>
-      <c r="B43" s="185"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="26" t="s">
+    <row r="43" spans="1:22">
+      <c r="A43" s="189"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="199"/>
+      <c r="P43" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O43" s="26" t="s">
+      <c r="Q43" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="R43" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q43" s="26" t="s">
+      <c r="S43" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="26" t="s">
+      <c r="T43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="185"/>
-    </row>
-    <row r="44" spans="1:20" ht="45">
+      <c r="U43" s="189"/>
+    </row>
+    <row r="44" spans="1:22" ht="45">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -8314,18 +8590,24 @@
       <c r="K44" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="L44" s="120"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="28">
+      <c r="L44" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="M44" s="120"/>
+      <c r="N44" s="120" t="s">
+        <v>208</v>
+      </c>
+      <c r="O44" s="23"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="28">
         <v>254</v>
       </c>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="9"/>
-    </row>
-    <row r="45" spans="1:20" ht="370">
+      <c r="R44" s="22"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:22" ht="370">
       <c r="A45" s="10">
         <f>A44+1</f>
         <v>2</v>
@@ -8352,18 +8634,22 @@
       <c r="K45" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="L45" s="121"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="28">
+      <c r="L45" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="28">
         <v>50</v>
       </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="12"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="R45" s="19"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="10"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -8376,15 +8662,17 @@
       <c r="J46" s="121"/>
       <c r="K46" s="128"/>
       <c r="L46" s="121"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="28"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="23"/>
       <c r="P46" s="19"/>
       <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="12"/>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="R46" s="19"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="12"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="14"/>
       <c r="B47" s="21"/>
       <c r="C47" s="15"/>
@@ -8397,196 +8685,257 @@
       <c r="J47" s="125"/>
       <c r="K47" s="125"/>
       <c r="L47" s="126"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="29"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="126"/>
+      <c r="O47" s="25"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="16"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="R47" s="21"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="16"/>
+    </row>
+    <row r="48" spans="1:22">
       <c r="I48" s="123"/>
       <c r="J48" s="123"/>
       <c r="K48" s="123"/>
       <c r="L48" s="123"/>
-    </row>
-    <row r="50" spans="9:12">
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+    </row>
+    <row r="50" spans="9:14">
       <c r="I50" s="123"/>
       <c r="J50" s="123"/>
       <c r="K50" s="123"/>
       <c r="L50" s="123"/>
-    </row>
-    <row r="52" spans="9:12">
+      <c r="M50" s="123"/>
+      <c r="N50" s="123"/>
+    </row>
+    <row r="52" spans="9:14">
       <c r="I52" s="123"/>
       <c r="J52" s="123"/>
       <c r="K52" s="123"/>
       <c r="L52" s="123"/>
-    </row>
-    <row r="58" spans="9:12">
+      <c r="M52" s="123"/>
+      <c r="N52" s="123"/>
+    </row>
+    <row r="58" spans="9:14">
       <c r="I58" s="82"/>
       <c r="J58" s="82"/>
       <c r="K58" s="82"/>
       <c r="L58" s="82"/>
-    </row>
-    <row r="59" spans="9:12">
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+    </row>
+    <row r="59" spans="9:14">
       <c r="I59" s="82"/>
       <c r="J59" s="82"/>
       <c r="K59" s="82"/>
       <c r="L59" s="82"/>
-    </row>
-    <row r="60" spans="9:12">
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+    </row>
+    <row r="60" spans="9:14">
       <c r="I60" s="82"/>
       <c r="J60" s="82"/>
       <c r="K60" s="82"/>
       <c r="L60" s="82"/>
-    </row>
-    <row r="61" spans="9:12">
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+    </row>
+    <row r="61" spans="9:14">
       <c r="I61" s="82"/>
       <c r="J61" s="82"/>
       <c r="K61" s="82"/>
       <c r="L61" s="82"/>
-    </row>
-    <row r="62" spans="9:12">
+      <c r="M61" s="82"/>
+      <c r="N61" s="82"/>
+    </row>
+    <row r="62" spans="9:14">
       <c r="I62" s="82"/>
       <c r="J62" s="82"/>
       <c r="K62" s="82"/>
       <c r="L62" s="82"/>
-    </row>
-    <row r="63" spans="9:12">
+      <c r="M62" s="82"/>
+      <c r="N62" s="82"/>
+    </row>
+    <row r="63" spans="9:14">
       <c r="I63" s="82"/>
       <c r="J63" s="82"/>
       <c r="K63" s="82"/>
       <c r="L63" s="82"/>
-    </row>
-    <row r="64" spans="9:12">
+      <c r="M63" s="82"/>
+      <c r="N63" s="82"/>
+    </row>
+    <row r="64" spans="9:14">
       <c r="I64" s="82"/>
       <c r="J64" s="82"/>
       <c r="K64" s="82"/>
       <c r="L64" s="82"/>
-    </row>
-    <row r="65" spans="9:12">
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+    </row>
+    <row r="65" spans="9:14">
       <c r="I65" s="82"/>
       <c r="J65" s="82"/>
       <c r="K65" s="82"/>
       <c r="L65" s="82"/>
-    </row>
-    <row r="66" spans="9:12">
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
+    </row>
+    <row r="66" spans="9:14">
       <c r="I66" s="82"/>
       <c r="J66" s="82"/>
       <c r="K66" s="82"/>
       <c r="L66" s="82"/>
-    </row>
-    <row r="67" spans="9:12">
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+    </row>
+    <row r="67" spans="9:14">
       <c r="I67" s="82"/>
       <c r="J67" s="82"/>
       <c r="K67" s="82"/>
       <c r="L67" s="82"/>
-    </row>
-    <row r="69" spans="9:12">
+      <c r="M67" s="82"/>
+      <c r="N67" s="82"/>
+    </row>
+    <row r="69" spans="9:14">
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
-    </row>
-    <row r="70" spans="9:12">
+      <c r="M69"/>
+      <c r="N69"/>
+    </row>
+    <row r="70" spans="9:14">
       <c r="I70" s="88"/>
       <c r="J70" s="88"/>
       <c r="K70" s="88"/>
       <c r="L70" s="88"/>
-    </row>
-    <row r="71" spans="9:12">
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+    </row>
+    <row r="71" spans="9:14">
       <c r="I71" s="88"/>
       <c r="J71" s="88"/>
       <c r="K71" s="88"/>
       <c r="L71" s="88"/>
-    </row>
-    <row r="72" spans="9:12">
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
+    </row>
+    <row r="72" spans="9:14">
       <c r="K72" s="123"/>
     </row>
-    <row r="73" spans="9:12">
+    <row r="73" spans="9:14">
       <c r="K73" s="123"/>
     </row>
-    <row r="76" spans="9:12">
+    <row r="76" spans="9:14">
       <c r="I76" s="123"/>
       <c r="J76" s="123"/>
       <c r="K76" s="123"/>
       <c r="L76" s="123"/>
-    </row>
-    <row r="78" spans="9:12">
+      <c r="M76" s="123"/>
+      <c r="N76" s="123"/>
+    </row>
+    <row r="78" spans="9:14">
       <c r="I78" s="123"/>
       <c r="J78" s="123"/>
       <c r="K78" s="123"/>
       <c r="L78" s="123"/>
-    </row>
-    <row r="80" spans="9:12">
+      <c r="M78" s="123"/>
+      <c r="N78" s="123"/>
+    </row>
+    <row r="80" spans="9:14">
       <c r="I80" s="123"/>
       <c r="J80" s="123"/>
       <c r="K80" s="123"/>
       <c r="L80" s="123"/>
-    </row>
-    <row r="86" spans="9:12">
+      <c r="M80" s="123"/>
+      <c r="N80" s="123"/>
+    </row>
+    <row r="86" spans="9:14">
       <c r="I86" s="82"/>
       <c r="J86" s="82"/>
       <c r="K86" s="82"/>
       <c r="L86" s="82"/>
-    </row>
-    <row r="87" spans="9:12">
+      <c r="M86" s="82"/>
+      <c r="N86" s="82"/>
+    </row>
+    <row r="87" spans="9:14">
       <c r="I87" s="82"/>
       <c r="J87" s="82"/>
       <c r="K87" s="82"/>
       <c r="L87" s="82"/>
-    </row>
-    <row r="88" spans="9:12">
+      <c r="M87" s="82"/>
+      <c r="N87" s="82"/>
+    </row>
+    <row r="88" spans="9:14">
       <c r="I88" s="82"/>
       <c r="J88" s="82"/>
       <c r="K88" s="82"/>
       <c r="L88" s="82"/>
-    </row>
-    <row r="89" spans="9:12">
+      <c r="M88" s="82"/>
+      <c r="N88" s="82"/>
+    </row>
+    <row r="89" spans="9:14">
       <c r="I89" s="82"/>
       <c r="J89" s="82"/>
       <c r="K89" s="82"/>
       <c r="L89" s="82"/>
-    </row>
-    <row r="90" spans="9:12">
+      <c r="M89" s="82"/>
+      <c r="N89" s="82"/>
+    </row>
+    <row r="90" spans="9:14">
       <c r="I90" s="82"/>
       <c r="J90" s="82"/>
       <c r="K90" s="82"/>
       <c r="L90" s="82"/>
-    </row>
-    <row r="91" spans="9:12">
+      <c r="M90" s="82"/>
+      <c r="N90" s="82"/>
+    </row>
+    <row r="91" spans="9:14">
       <c r="I91" s="82"/>
       <c r="J91" s="82"/>
       <c r="K91" s="82"/>
       <c r="L91" s="82"/>
-    </row>
-    <row r="92" spans="9:12">
+      <c r="M91" s="82"/>
+      <c r="N91" s="82"/>
+    </row>
+    <row r="92" spans="9:14">
       <c r="I92" s="82"/>
       <c r="J92" s="82"/>
       <c r="K92" s="82"/>
       <c r="L92" s="82"/>
-    </row>
-    <row r="93" spans="9:12">
+      <c r="M92" s="82"/>
+      <c r="N92" s="82"/>
+    </row>
+    <row r="93" spans="9:14">
       <c r="I93" s="82"/>
       <c r="J93" s="82"/>
       <c r="K93" s="82"/>
       <c r="L93" s="82"/>
-    </row>
-    <row r="94" spans="9:12">
+      <c r="M93" s="82"/>
+      <c r="N93" s="82"/>
+    </row>
+    <row r="94" spans="9:14">
       <c r="I94" s="82"/>
       <c r="J94" s="82"/>
       <c r="K94" s="82"/>
       <c r="L94" s="82"/>
-    </row>
-    <row r="95" spans="9:12">
+      <c r="M94" s="82"/>
+      <c r="N94" s="82"/>
+    </row>
+    <row r="95" spans="9:14">
       <c r="I95" s="82"/>
       <c r="J95" s="82"/>
       <c r="K95" s="82"/>
       <c r="L95" s="82"/>
+      <c r="M95" s="82"/>
+      <c r="N95" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="39">
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
@@ -8596,17 +8945,19 @@
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
     <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
     <mergeCell ref="H42:H43"/>
-    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="O42:O43"/>
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="L42:L43"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
@@ -8625,15 +8976,18 @@
     <mergeCell ref="A20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{C2D0C7F4-19B0-DB40-AFFD-E6928EE4E5C2}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M44:M47" xr:uid="{1FBC7B49-ABAE-AE4A-8A55-EF1A4EFC4446}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44:O47" xr:uid="{1FBC7B49-ABAE-AE4A-8A55-EF1A4EFC4446}">
       <formula1>isNullable</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:N47" xr:uid="{128FB398-E751-EF4D-83BD-6C067F4DF241}">
+      <formula1>qeryKind</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -8683,7 +9037,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8762,7 +9116,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D7" s="31"/>
       <c r="Q7"/>
@@ -8792,30 +9146,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="142"/>
+      <c r="C10" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="142"/>
+      <c r="C11" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -8825,15 +9179,17 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="100"/>
-      <c r="C14" s="77"/>
+      <c r="C14" s="77" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" t="s">
         <v>134</v>
       </c>
@@ -8857,15 +9213,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -8875,14 +9231,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -8897,12 +9253,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -8917,12 +9273,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -8937,12 +9293,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -8965,15 +9321,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="173"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -8984,14 +9340,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -9005,14 +9361,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -9029,14 +9385,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -9053,14 +9409,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="163" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -9077,14 +9433,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -9096,12 +9452,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -9117,12 +9473,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -9157,29 +9513,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="171" t="s">
+      <c r="A31" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="173"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="177"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -9195,12 +9551,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="181"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -9216,12 +9572,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="182"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -9236,12 +9592,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="183"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -9303,76 +9659,76 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="187" t="s">
+      <c r="A39" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="191" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="187" t="s">
+      <c r="D39" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="187" t="s">
+      <c r="E39" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="187" t="s">
+      <c r="F39" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="187" t="s">
+      <c r="G39" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="187" t="s">
+      <c r="H39" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="200" t="s">
+      <c r="I39" s="204" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="202" t="s">
+      <c r="J39" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="K39" s="202" t="s">
+      <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="193" t="s">
+      <c r="L39" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="184" t="s">
+      <c r="M39" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="197" t="s">
+      <c r="N39" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="198"/>
-      <c r="P39" s="199" t="s">
+      <c r="O39" s="202"/>
+      <c r="P39" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="198"/>
+      <c r="Q39" s="202"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="187" t="s">
+      <c r="S39" s="191" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="196"/>
-      <c r="B40" s="196"/>
+      <c r="A40" s="200"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="196"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="203"/>
-      <c r="K40" s="203"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="195"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="208"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -9388,7 +9744,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="196"/>
+      <c r="S40" s="200"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -9672,10 +10028,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9688,48 +10044,48 @@
     <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="20.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="43.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.1640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="20.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.83203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" style="1"/>
-    <col min="31" max="31" width="9.1640625" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="16.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="1"/>
+    <col min="33" max="33" width="9.1640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19">
+    <row r="1" spans="1:19" ht="19">
       <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9737,7 +10093,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -9748,18 +10104,18 @@
       </c>
       <c r="D6" s="105"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" s="103"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -9769,17 +10125,17 @@
       </c>
       <c r="D8" s="101"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="43" t="s">
         <v>124</v>
       </c>
@@ -9787,7 +10143,7 @@
       <c r="C10" s="97"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="43" t="s">
         <v>125</v>
       </c>
@@ -9795,7 +10151,7 @@
       <c r="C11" s="97"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12" s="43" t="s">
         <v>126</v>
       </c>
@@ -9803,39 +10159,41 @@
       <c r="C12" s="97"/>
       <c r="D12" s="102"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="142"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="C13" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="146"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="31"/>
+      <c r="C14" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="146"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="132"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -9843,25 +10201,31 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="98" t="s">
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="99" t="s">
         <v>133</v>
       </c>
       <c r="B17" s="100"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="77" t="s">
+        <v>110</v>
+      </c>
       <c r="D17" t="s">
         <v>134</v>
       </c>
@@ -9877,8 +10241,10 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="107" t="s">
         <v>153</v>
       </c>
@@ -9899,252 +10265,272 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="6"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="174" t="s">
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="168" t="s">
+      <c r="B21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
+      <c r="M21"/>
+      <c r="N21"/>
       <c r="O21" s="82"/>
       <c r="P21" s="82"/>
       <c r="Q21" s="82"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="93"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="O22" s="89"/>
       <c r="P22" s="89"/>
-      <c r="R22"/>
-      <c r="S22"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
       <c r="T22"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22"/>
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="94"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
-      <c r="R23"/>
-      <c r="S23"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
       <c r="T23"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="95"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
       <c r="L24" s="82"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
       <c r="O24" s="89"/>
       <c r="P24" s="89"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
       <c r="T24"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="C25"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
       <c r="L25" s="82"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="171" t="s">
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="173"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="177"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
       <c r="L26" s="82"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
+      <c r="M27"/>
+      <c r="N27"/>
       <c r="O27" s="82"/>
       <c r="P27" s="82"/>
       <c r="Q27" s="82"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
       <c r="T28"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28"/>
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
-      <c r="R29"/>
-      <c r="S29"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
       <c r="T29"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29"/>
+      <c r="V29"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="158" t="s">
+      <c r="B30" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
       <c r="H30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
-      <c r="R30"/>
-      <c r="S30"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
       <c r="T30"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="94"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
       <c r="L31" s="82"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
       <c r="O31" s="89"/>
       <c r="P31" s="89"/>
-      <c r="R31"/>
-      <c r="S31"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
       <c r="T31"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="95"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -10154,11 +10540,13 @@
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
       <c r="P32" s="89"/>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
       <c r="T32"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -10171,105 +10559,111 @@
       <c r="J33" s="89"/>
       <c r="K33" s="89"/>
       <c r="L33" s="89"/>
-      <c r="M33"/>
-      <c r="N33"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="171" t="s">
+      <c r="S33"/>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="173"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="177"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
       <c r="L34" s="89"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
+      <c r="M35"/>
+      <c r="N35"/>
       <c r="O35" s="82"/>
       <c r="P35" s="82"/>
       <c r="Q35" s="82"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="93"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="181"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
       <c r="T36"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36"/>
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="94"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="182"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
-      <c r="R37"/>
-      <c r="S37"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
       <c r="T37"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="95"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="183"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="187"/>
       <c r="H38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
-      <c r="R38"/>
-      <c r="S38"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
       <c r="T38"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -10278,21 +10672,23 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="M39"/>
-      <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="S39"/>
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="6"/>
       <c r="I40" s="118"/>
       <c r="J40" s="118"/>
       <c r="K40" s="118"/>
       <c r="L40" s="118"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
@@ -10307,101 +10703,111 @@
       <c r="J41" s="119"/>
       <c r="K41" s="119"/>
       <c r="L41" s="119"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="184" t="s">
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="186" t="s">
+      <c r="C42" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="184" t="s">
+      <c r="D42" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="187" t="s">
+      <c r="E42" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="187" t="s">
+      <c r="F42" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="184" t="s">
+      <c r="G42" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="184" t="s">
+      <c r="H42" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="192" t="s">
+      <c r="I42" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="192" t="s">
+      <c r="J42" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="192" t="s">
+      <c r="K42" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="193" t="s">
+      <c r="L42" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="184" t="s">
+      <c r="M42" s="197" t="s">
+        <v>206</v>
+      </c>
+      <c r="N42" s="197" t="s">
+        <v>207</v>
+      </c>
+      <c r="O42" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N42" s="190" t="s">
+      <c r="P42" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="191"/>
-      <c r="P42" s="190" t="s">
+      <c r="Q42" s="195"/>
+      <c r="R42" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="191"/>
-      <c r="R42" s="30" t="s">
+      <c r="S42" s="195"/>
+      <c r="T42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="184" t="s">
+      <c r="U42" s="188" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="185"/>
-      <c r="B43" s="185"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="26" t="s">
+    <row r="43" spans="1:22">
+      <c r="A43" s="189"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="199"/>
+      <c r="P43" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O43" s="26" t="s">
+      <c r="Q43" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="R43" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q43" s="26" t="s">
+      <c r="S43" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="26" t="s">
+      <c r="T43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="185"/>
-    </row>
-    <row r="44" spans="1:20" ht="45">
+      <c r="U43" s="189"/>
+    </row>
+    <row r="44" spans="1:22" ht="45">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -10427,18 +10833,24 @@
       <c r="K44" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="L44" s="120"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="28">
+      <c r="L44" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="M44" s="120"/>
+      <c r="N44" s="120" t="s">
+        <v>208</v>
+      </c>
+      <c r="O44" s="23"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="28">
         <v>254</v>
       </c>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="9"/>
-    </row>
-    <row r="45" spans="1:20" ht="370">
+      <c r="R44" s="22"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:22" ht="370">
       <c r="A45" s="10">
         <f>A44+1</f>
         <v>2</v>
@@ -10465,18 +10877,24 @@
       <c r="K45" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="L45" s="121"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="28">
+      <c r="L45" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="O45" s="23"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="28">
         <v>50</v>
       </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="12"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="R45" s="19"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="10"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -10489,15 +10907,17 @@
       <c r="J46" s="121"/>
       <c r="K46" s="128"/>
       <c r="L46" s="121"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="28"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="23"/>
       <c r="P46" s="19"/>
       <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="12"/>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="R46" s="19"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="12"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="14"/>
       <c r="B47" s="21"/>
       <c r="C47" s="15"/>
@@ -10510,205 +10930,267 @@
       <c r="J47" s="125"/>
       <c r="K47" s="125"/>
       <c r="L47" s="126"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="29"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="126"/>
+      <c r="O47" s="25"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="16"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="R47" s="21"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="16"/>
+    </row>
+    <row r="48" spans="1:22">
       <c r="I48" s="123"/>
       <c r="J48" s="123"/>
       <c r="K48" s="123"/>
       <c r="L48" s="123"/>
-    </row>
-    <row r="50" spans="9:12">
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+    </row>
+    <row r="50" spans="9:14">
       <c r="I50" s="123"/>
       <c r="J50" s="123"/>
       <c r="K50" s="123"/>
       <c r="L50" s="123"/>
-    </row>
-    <row r="52" spans="9:12">
+      <c r="M50" s="123"/>
+      <c r="N50" s="123"/>
+    </row>
+    <row r="52" spans="9:14">
       <c r="I52" s="123"/>
       <c r="J52" s="123"/>
       <c r="K52" s="123"/>
       <c r="L52" s="123"/>
-    </row>
-    <row r="58" spans="9:12">
+      <c r="M52" s="123"/>
+      <c r="N52" s="123"/>
+    </row>
+    <row r="58" spans="9:14">
       <c r="I58" s="82"/>
       <c r="J58" s="82"/>
       <c r="K58" s="82"/>
       <c r="L58" s="82"/>
-    </row>
-    <row r="59" spans="9:12">
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+    </row>
+    <row r="59" spans="9:14">
       <c r="I59" s="82"/>
       <c r="J59" s="82"/>
       <c r="K59" s="82"/>
       <c r="L59" s="82"/>
-    </row>
-    <row r="60" spans="9:12">
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+    </row>
+    <row r="60" spans="9:14">
       <c r="I60" s="82"/>
       <c r="J60" s="82"/>
       <c r="K60" s="82"/>
       <c r="L60" s="82"/>
-    </row>
-    <row r="61" spans="9:12">
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+    </row>
+    <row r="61" spans="9:14">
       <c r="I61" s="82"/>
       <c r="J61" s="82"/>
       <c r="K61" s="82"/>
       <c r="L61" s="82"/>
-    </row>
-    <row r="62" spans="9:12">
+      <c r="M61" s="82"/>
+      <c r="N61" s="82"/>
+    </row>
+    <row r="62" spans="9:14">
       <c r="I62" s="82"/>
       <c r="J62" s="82"/>
       <c r="K62" s="82"/>
       <c r="L62" s="82"/>
-    </row>
-    <row r="63" spans="9:12">
+      <c r="M62" s="82"/>
+      <c r="N62" s="82"/>
+    </row>
+    <row r="63" spans="9:14">
       <c r="I63" s="82"/>
       <c r="J63" s="82"/>
       <c r="K63" s="82"/>
       <c r="L63" s="82"/>
-    </row>
-    <row r="64" spans="9:12">
+      <c r="M63" s="82"/>
+      <c r="N63" s="82"/>
+    </row>
+    <row r="64" spans="9:14">
       <c r="I64" s="82"/>
       <c r="J64" s="82"/>
       <c r="K64" s="82"/>
       <c r="L64" s="82"/>
-    </row>
-    <row r="65" spans="9:12">
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+    </row>
+    <row r="65" spans="9:14">
       <c r="I65" s="82"/>
       <c r="J65" s="82"/>
       <c r="K65" s="82"/>
       <c r="L65" s="82"/>
-    </row>
-    <row r="66" spans="9:12">
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
+    </row>
+    <row r="66" spans="9:14">
       <c r="I66" s="82"/>
       <c r="J66" s="82"/>
       <c r="K66" s="82"/>
       <c r="L66" s="82"/>
-    </row>
-    <row r="67" spans="9:12">
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+    </row>
+    <row r="67" spans="9:14">
       <c r="I67" s="82"/>
       <c r="J67" s="82"/>
       <c r="K67" s="82"/>
       <c r="L67" s="82"/>
-    </row>
-    <row r="69" spans="9:12">
+      <c r="M67" s="82"/>
+      <c r="N67" s="82"/>
+    </row>
+    <row r="69" spans="9:14">
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
-    </row>
-    <row r="70" spans="9:12">
+      <c r="M69"/>
+      <c r="N69"/>
+    </row>
+    <row r="70" spans="9:14">
       <c r="I70" s="88"/>
       <c r="J70" s="88"/>
       <c r="K70" s="88"/>
       <c r="L70" s="88"/>
-    </row>
-    <row r="71" spans="9:12">
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+    </row>
+    <row r="71" spans="9:14">
       <c r="I71" s="88"/>
       <c r="J71" s="88"/>
       <c r="K71" s="88"/>
       <c r="L71" s="88"/>
-    </row>
-    <row r="72" spans="9:12">
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
+    </row>
+    <row r="72" spans="9:14">
       <c r="K72" s="123"/>
     </row>
-    <row r="73" spans="9:12">
+    <row r="73" spans="9:14">
       <c r="K73" s="123"/>
     </row>
-    <row r="76" spans="9:12">
+    <row r="76" spans="9:14">
       <c r="I76" s="123"/>
       <c r="J76" s="123"/>
       <c r="K76" s="123"/>
       <c r="L76" s="123"/>
-    </row>
-    <row r="78" spans="9:12">
+      <c r="M76" s="123"/>
+      <c r="N76" s="123"/>
+    </row>
+    <row r="78" spans="9:14">
       <c r="I78" s="123"/>
       <c r="J78" s="123"/>
       <c r="K78" s="123"/>
       <c r="L78" s="123"/>
-    </row>
-    <row r="80" spans="9:12">
+      <c r="M78" s="123"/>
+      <c r="N78" s="123"/>
+    </row>
+    <row r="80" spans="9:14">
       <c r="I80" s="123"/>
       <c r="J80" s="123"/>
       <c r="K80" s="123"/>
       <c r="L80" s="123"/>
-    </row>
-    <row r="86" spans="9:12">
+      <c r="M80" s="123"/>
+      <c r="N80" s="123"/>
+    </row>
+    <row r="86" spans="9:14">
       <c r="I86" s="82"/>
       <c r="J86" s="82"/>
       <c r="K86" s="82"/>
       <c r="L86" s="82"/>
-    </row>
-    <row r="87" spans="9:12">
+      <c r="M86" s="82"/>
+      <c r="N86" s="82"/>
+    </row>
+    <row r="87" spans="9:14">
       <c r="I87" s="82"/>
       <c r="J87" s="82"/>
       <c r="K87" s="82"/>
       <c r="L87" s="82"/>
-    </row>
-    <row r="88" spans="9:12">
+      <c r="M87" s="82"/>
+      <c r="N87" s="82"/>
+    </row>
+    <row r="88" spans="9:14">
       <c r="I88" s="82"/>
       <c r="J88" s="82"/>
       <c r="K88" s="82"/>
       <c r="L88" s="82"/>
-    </row>
-    <row r="89" spans="9:12">
+      <c r="M88" s="82"/>
+      <c r="N88" s="82"/>
+    </row>
+    <row r="89" spans="9:14">
       <c r="I89" s="82"/>
       <c r="J89" s="82"/>
       <c r="K89" s="82"/>
       <c r="L89" s="82"/>
-    </row>
-    <row r="90" spans="9:12">
+      <c r="M89" s="82"/>
+      <c r="N89" s="82"/>
+    </row>
+    <row r="90" spans="9:14">
       <c r="I90" s="82"/>
       <c r="J90" s="82"/>
       <c r="K90" s="82"/>
       <c r="L90" s="82"/>
-    </row>
-    <row r="91" spans="9:12">
+      <c r="M90" s="82"/>
+      <c r="N90" s="82"/>
+    </row>
+    <row r="91" spans="9:14">
       <c r="I91" s="82"/>
       <c r="J91" s="82"/>
       <c r="K91" s="82"/>
       <c r="L91" s="82"/>
-    </row>
-    <row r="92" spans="9:12">
+      <c r="M91" s="82"/>
+      <c r="N91" s="82"/>
+    </row>
+    <row r="92" spans="9:14">
       <c r="I92" s="82"/>
       <c r="J92" s="82"/>
       <c r="K92" s="82"/>
       <c r="L92" s="82"/>
-    </row>
-    <row r="93" spans="9:12">
+      <c r="M92" s="82"/>
+      <c r="N92" s="82"/>
+    </row>
+    <row r="93" spans="9:14">
       <c r="I93" s="82"/>
       <c r="J93" s="82"/>
       <c r="K93" s="82"/>
       <c r="L93" s="82"/>
-    </row>
-    <row r="94" spans="9:12">
+      <c r="M93" s="82"/>
+      <c r="N93" s="82"/>
+    </row>
+    <row r="94" spans="9:14">
       <c r="I94" s="82"/>
       <c r="J94" s="82"/>
       <c r="K94" s="82"/>
       <c r="L94" s="82"/>
-    </row>
-    <row r="95" spans="9:12">
+      <c r="M94" s="82"/>
+      <c r="N94" s="82"/>
+    </row>
+    <row r="95" spans="9:14">
       <c r="I95" s="82"/>
       <c r="J95" s="82"/>
       <c r="K95" s="82"/>
       <c r="L95" s="82"/>
+      <c r="M95" s="82"/>
+      <c r="N95" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="N42:O42"/>
+  <mergeCells count="39">
     <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="L42:L43"/>
+    <mergeCell ref="O42:O43"/>
     <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="A42:A43"/>
@@ -10736,10 +11218,11 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M44:M47" xr:uid="{09046035-ED6B-2A40-A5F4-4BB23485C124}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44:O47" xr:uid="{09046035-ED6B-2A40-A5F4-4BB23485C124}">
       <formula1>isNullable</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{A0D97F5F-E727-854B-BD10-BEE524A25F39}">
@@ -10747,6 +11230,9 @@
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{824BBF5B-67C6-1C4E-AB70-221F85A4C5C9}">
       <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:N47" xr:uid="{4C0AADA0-53CE-9A47-A267-83CE57CF25BE}">
+      <formula1>qeryKind</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -10796,7 +11282,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G18"/>
+      <selection activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10875,7 +11361,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D7" s="31"/>
       <c r="Q7"/>
@@ -10896,7 +11382,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" s="72"/>
     </row>
@@ -10905,30 +11391,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="142"/>
+      <c r="C10" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="142"/>
+      <c r="C11" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -10938,15 +11424,17 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="100"/>
-      <c r="C14" s="77"/>
+      <c r="C14" s="77" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" t="s">
         <v>134</v>
       </c>
@@ -10970,15 +11458,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -10988,14 +11476,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -11010,12 +11498,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -11030,12 +11518,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -11050,12 +11538,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -11078,15 +11566,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="173"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -11097,14 +11585,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -11118,14 +11606,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -11142,14 +11630,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -11166,14 +11654,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="163" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -11190,14 +11678,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -11209,12 +11697,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -11230,12 +11718,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -11270,29 +11758,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="171" t="s">
+      <c r="A31" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="173"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="177"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -11308,12 +11796,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="181"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -11329,12 +11817,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="182"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -11349,12 +11837,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="183"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -11416,76 +11904,76 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="187" t="s">
+      <c r="A39" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="191" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="187" t="s">
+      <c r="D39" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="187" t="s">
+      <c r="E39" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="187" t="s">
+      <c r="F39" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="187" t="s">
+      <c r="G39" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="187" t="s">
+      <c r="H39" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="200" t="s">
+      <c r="I39" s="204" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="202" t="s">
+      <c r="J39" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="K39" s="202" t="s">
+      <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="193" t="s">
+      <c r="L39" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="184" t="s">
+      <c r="M39" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="197" t="s">
+      <c r="N39" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="198"/>
-      <c r="P39" s="199" t="s">
+      <c r="O39" s="202"/>
+      <c r="P39" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="198"/>
+      <c r="Q39" s="202"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="187" t="s">
+      <c r="S39" s="191" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="196"/>
-      <c r="B40" s="196"/>
+      <c r="A40" s="200"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="196"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="203"/>
-      <c r="K40" s="203"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="195"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="208"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -11501,7 +11989,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="196"/>
+      <c r="S40" s="200"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -11787,8 +12275,8 @@
   </sheetPr>
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E36" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -11867,7 +12355,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="103"/>
       <c r="Q7"/>
@@ -11888,7 +12376,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="97" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -11921,20 +12409,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="142"/>
+      <c r="C13" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="146"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="31"/>
+      <c r="C14" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="146"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -11945,10 +12433,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="132"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -11962,8 +12450,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -11974,7 +12462,9 @@
         <v>133</v>
       </c>
       <c r="B17" s="100"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="77" t="s">
+        <v>110</v>
+      </c>
       <c r="D17" t="s">
         <v>134</v>
       </c>
@@ -12021,15 +12511,15 @@
       <c r="L19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -12039,14 +12529,14 @@
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="168" t="s">
+      <c r="B21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -12062,12 +12552,12 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="93"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -12083,12 +12573,12 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="94"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="89"/>
       <c r="M23" s="89"/>
       <c r="N23" s="89"/>
@@ -12100,12 +12590,12 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="95"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -12127,15 +12617,15 @@
       <c r="L25" s="82"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="173"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="177"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -12145,14 +12635,14 @@
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -12170,14 +12660,14 @@
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="M28" s="89"/>
       <c r="N28" s="89"/>
@@ -12191,14 +12681,14 @@
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="89"/>
       <c r="M29" s="89"/>
       <c r="N29" s="89"/>
@@ -12212,14 +12702,14 @@
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="158" t="s">
+      <c r="B30" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
       <c r="H30" s="89"/>
       <c r="M30" s="89"/>
       <c r="N30" s="89"/>
@@ -12231,12 +12721,12 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="94"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
@@ -12252,12 +12742,12 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="95"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -12292,15 +12782,15 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="171" t="s">
+      <c r="A34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="173"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="177"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
@@ -12310,14 +12800,14 @@
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -12333,12 +12823,12 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="93"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="181"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="165"/>
       <c r="H36" s="89"/>
       <c r="M36" s="89"/>
       <c r="N36" s="89"/>
@@ -12350,12 +12840,12 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="94"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="182"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="89"/>
       <c r="M37" s="89"/>
       <c r="N37" s="89"/>
@@ -12367,12 +12857,12 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="95"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="183"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="187"/>
       <c r="H38" s="89"/>
       <c r="M38" s="89"/>
       <c r="N38" s="89"/>
@@ -12429,74 +12919,74 @@
       <c r="S41" s="5"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="184" t="s">
+      <c r="A42" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="186" t="s">
+      <c r="C42" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="184" t="s">
+      <c r="D42" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="187" t="s">
+      <c r="E42" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="187" t="s">
+      <c r="F42" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="184" t="s">
+      <c r="G42" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="184" t="s">
+      <c r="H42" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="192" t="s">
+      <c r="I42" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="192" t="s">
+      <c r="J42" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="192" t="s">
+      <c r="K42" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="193" t="s">
+      <c r="L42" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="184" t="s">
+      <c r="M42" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N42" s="190" t="s">
+      <c r="N42" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="191"/>
-      <c r="P42" s="190" t="s">
+      <c r="O42" s="195"/>
+      <c r="P42" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="191"/>
+      <c r="Q42" s="195"/>
       <c r="R42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="184" t="s">
+      <c r="S42" s="188" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="185"/>
-      <c r="B43" s="185"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="195"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="199"/>
       <c r="N43" s="26" t="s">
         <v>74</v>
       </c>
@@ -12512,7 +13002,7 @@
       <c r="R43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="185"/>
+      <c r="S43" s="189"/>
     </row>
     <row r="44" spans="1:20" ht="45">
       <c r="A44" s="7">
@@ -12540,7 +13030,9 @@
       <c r="K44" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="L44" s="120"/>
+      <c r="L44" s="120" t="s">
+        <v>158</v>
+      </c>
       <c r="M44" s="23" t="s">
         <v>110</v>
       </c>
@@ -12580,7 +13072,9 @@
       <c r="K45" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="L45" s="121"/>
+      <c r="L45" s="121" t="s">
+        <v>158</v>
+      </c>
       <c r="M45" s="23" t="s">
         <v>110</v>
       </c>
@@ -12816,13 +13310,14 @@
       <c r="L95" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
@@ -12912,8 +13407,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12992,7 +13487,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D7" s="31"/>
       <c r="Q7"/>
@@ -13013,7 +13508,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" s="72"/>
     </row>
@@ -13022,30 +13517,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="142"/>
+      <c r="C10" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="142"/>
+      <c r="C11" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -13055,15 +13550,17 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="100"/>
-      <c r="C14" s="77"/>
+      <c r="C14" s="77" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" t="s">
         <v>134</v>
       </c>
@@ -13087,15 +13584,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -13105,14 +13602,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -13127,12 +13624,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -13147,12 +13644,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -13167,12 +13664,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -13195,15 +13692,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="173"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -13214,14 +13711,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -13235,14 +13732,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -13259,14 +13756,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -13283,14 +13780,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="163" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -13307,14 +13804,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -13326,12 +13823,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -13347,12 +13844,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -13387,29 +13884,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="171" t="s">
+      <c r="A31" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="173"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="177"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -13425,12 +13922,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="181"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -13446,12 +13943,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="182"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -13466,12 +13963,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="183"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -13533,76 +14030,76 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="187" t="s">
+      <c r="A39" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="191" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="187" t="s">
+      <c r="D39" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="187" t="s">
+      <c r="E39" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="187" t="s">
+      <c r="F39" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="187" t="s">
+      <c r="G39" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="187" t="s">
+      <c r="H39" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="200" t="s">
+      <c r="I39" s="204" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="202" t="s">
+      <c r="J39" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="K39" s="202" t="s">
+      <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="193" t="s">
+      <c r="L39" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="184" t="s">
+      <c r="M39" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="197" t="s">
+      <c r="N39" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="198"/>
-      <c r="P39" s="199" t="s">
+      <c r="O39" s="202"/>
+      <c r="P39" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="198"/>
+      <c r="Q39" s="202"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="187" t="s">
+      <c r="S39" s="191" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="196"/>
-      <c r="B40" s="196"/>
+      <c r="A40" s="200"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="196"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="203"/>
-      <c r="K40" s="203"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="195"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="208"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -13618,7 +14115,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="196"/>
+      <c r="S40" s="200"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>

--- a/blanco-meta/rest/SampleMethodTest.xlsx
+++ b/blanco-meta/rest/SampleMethodTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/rest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BED9F8-07D3-D940-8711-9FB9134E990E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20AC43D-5124-6140-B93B-F2C2DDE9CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="213">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2379,6 +2379,14 @@
   </si>
   <si>
     <t xml:space="preserve">dapanda\api\sample	</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@Serdeable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>io.micronaut.serde.annotation.Serdeable</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3671,93 +3679,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3766,6 +3687,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3809,7 +3733,110 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3818,10 +3845,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3834,25 +3857,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3862,6 +3867,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4364,77 +4372,77 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="146" t="s">
+      <c r="B6" s="180"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="176" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="146"/>
+      <c r="E6" s="176"/>
     </row>
     <row r="7" spans="1:6" ht="91.5" customHeight="1">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="147" t="s">
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="177" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="148"/>
+      <c r="E7" s="178"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="146" t="s">
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="176" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="146"/>
+      <c r="E8" s="176"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="146" t="s">
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="146"/>
+      <c r="E10" s="176"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146" t="s">
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="146"/>
+      <c r="E11" s="176"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="134" t="s">
@@ -4442,10 +4450,10 @@
       </c>
       <c r="B12" s="134"/>
       <c r="C12" s="134"/>
-      <c r="D12" s="136" t="s">
+      <c r="D12" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="136"/>
+      <c r="E12" s="153"/>
       <c r="F12" s="1" t="s">
         <v>131</v>
       </c>
@@ -4456,8 +4464,8 @@
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="134"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
       <c r="F13" s="1" t="s">
         <v>154</v>
       </c>
@@ -4468,10 +4476,10 @@
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="136"/>
+      <c r="E14" s="153"/>
       <c r="F14" s="1" t="s">
         <v>161</v>
       </c>
@@ -4482,10 +4490,10 @@
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="154" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="136"/>
+      <c r="E15" s="153"/>
       <c r="F15" s="1" t="s">
         <v>163</v>
       </c>
@@ -4496,10 +4504,10 @@
       </c>
       <c r="B16" s="134"/>
       <c r="C16" s="134"/>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="136"/>
+      <c r="E16" s="153"/>
       <c r="F16" s="1" t="s">
         <v>165</v>
       </c>
@@ -4510,28 +4518,28 @@
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="153"/>
       <c r="F17" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="182" t="s">
+      <c r="A18" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="184"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="91" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="170"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="77"/>
       <c r="E19" t="s">
         <v>134</v>
@@ -4549,15 +4557,15 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="181"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="149"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="78" t="s">
@@ -4605,28 +4613,28 @@
       <c r="C25"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="178" t="s">
+      <c r="A26" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="172" t="s">
+      <c r="B27" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="174"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="82"/>
       <c r="I27" s="82"/>
       <c r="J27" s="82"/>
@@ -4637,12 +4645,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="93"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
       <c r="H28" s="89"/>
       <c r="I28" s="89"/>
       <c r="J28" s="89"/>
@@ -4653,12 +4661,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="94"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="89"/>
       <c r="I29" s="89"/>
       <c r="J29" s="89"/>
@@ -4669,12 +4677,12 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="95"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
       <c r="H30" s="89"/>
       <c r="I30" s="89"/>
       <c r="J30" s="89"/>
@@ -4687,28 +4695,28 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="175" t="s">
+      <c r="A32" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="177"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="145"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="161" t="s">
+      <c r="B33" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="82"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
@@ -4719,12 +4727,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="93"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -4735,12 +4743,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="94"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -4751,12 +4759,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="95"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
       <c r="H36" s="89"/>
       <c r="I36" s="89"/>
       <c r="J36" s="89"/>
@@ -4781,28 +4789,28 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="175" t="s">
+      <c r="A38" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="177"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="145"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="161" t="s">
+      <c r="B39" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
       <c r="H39" s="82"/>
       <c r="I39" s="82"/>
       <c r="J39" s="82"/>
@@ -4815,14 +4823,14 @@
       <c r="A40" s="93">
         <v>1</v>
       </c>
-      <c r="B40" s="162" t="s">
+      <c r="B40" s="169" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="165"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="172"/>
       <c r="H40" s="89"/>
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
@@ -4833,12 +4841,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="94"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="166"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="173"/>
       <c r="H41" s="89"/>
       <c r="I41" s="89"/>
       <c r="J41" s="89"/>
@@ -4849,12 +4857,12 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="95"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="167"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="174"/>
       <c r="H42" s="89"/>
       <c r="I42" s="89"/>
       <c r="J42" s="89"/>
@@ -4890,85 +4898,128 @@
       <c r="G44" s="109"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="171"/>
-      <c r="C45" s="142" t="s">
+      <c r="B45" s="139"/>
+      <c r="C45" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="143"/>
-      <c r="E45" s="144"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="184"/>
       <c r="F45" s="110" t="s">
         <v>155</v>
       </c>
       <c r="G45" s="109"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="137"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="141"/>
+      <c r="A46" s="155"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="162"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="164"/>
       <c r="F46" s="3"/>
       <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="137"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="141"/>
+      <c r="A47" s="155"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="164"/>
       <c r="F47" s="3"/>
       <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="137"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="141"/>
+      <c r="A48" s="155"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="164"/>
       <c r="F48" s="3"/>
       <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="137"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="141"/>
+      <c r="A49" s="155"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="163"/>
+      <c r="E49" s="164"/>
       <c r="F49" s="3"/>
       <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="137"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="141"/>
+      <c r="A50" s="155"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="164"/>
       <c r="F50" s="3"/>
       <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="137"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="141"/>
+      <c r="A51" s="155"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="164"/>
       <c r="F51" s="3"/>
       <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="153"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="160"/>
+      <c r="A52" s="157"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="166"/>
+      <c r="E52" s="167"/>
       <c r="F52" s="102"/>
       <c r="G52" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A45:B45"/>
@@ -4985,49 +5036,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5676,20 +5684,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="146"/>
+      <c r="D13" s="176"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="146"/>
+      <c r="D14" s="176"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -5702,10 +5710,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="136"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -5721,8 +5729,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -5790,15 +5798,15 @@
       <c r="N19"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -5810,14 +5818,14 @@
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="174"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -5835,12 +5843,12 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="93"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -5858,12 +5866,12 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="94"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
@@ -5875,12 +5883,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="95"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -5906,15 +5914,15 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="177"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -5926,14 +5934,14 @@
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -5953,14 +5961,14 @@
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="162" t="s">
+      <c r="B28" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
       <c r="H28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
@@ -5974,14 +5982,14 @@
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
@@ -5995,14 +6003,14 @@
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
@@ -6014,12 +6022,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="94"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
@@ -6037,12 +6045,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="95"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -6081,15 +6089,15 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="177"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
@@ -6101,14 +6109,14 @@
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="161" t="s">
+      <c r="B35" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -6126,12 +6134,12 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="93"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="185"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="199"/>
       <c r="H36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
@@ -6143,12 +6151,12 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="94"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="186"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="193"/>
       <c r="H37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
@@ -6160,12 +6168,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="95"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="187"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="194"/>
       <c r="H38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
@@ -6226,82 +6234,82 @@
       <c r="U41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="190" t="s">
+      <c r="C42" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="188" t="s">
+      <c r="D42" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="191" t="s">
+      <c r="E42" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="191" t="s">
+      <c r="F42" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="188" t="s">
+      <c r="G42" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="188" t="s">
+      <c r="H42" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="196" t="s">
+      <c r="I42" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="196" t="s">
+      <c r="J42" s="189" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="196" t="s">
+      <c r="K42" s="189" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="197" t="s">
+      <c r="L42" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="197" t="s">
+      <c r="M42" s="190" t="s">
         <v>206</v>
       </c>
-      <c r="N42" s="197" t="s">
+      <c r="N42" s="190" t="s">
         <v>207</v>
       </c>
-      <c r="O42" s="188" t="s">
+      <c r="O42" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="P42" s="194" t="s">
+      <c r="P42" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="195"/>
-      <c r="R42" s="194" t="s">
+      <c r="Q42" s="186"/>
+      <c r="R42" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="195"/>
+      <c r="S42" s="186"/>
       <c r="T42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="U42" s="188" t="s">
+      <c r="U42" s="187" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="189"/>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="196"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="199"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="191"/>
+      <c r="O43" s="192"/>
       <c r="P43" s="26" t="s">
         <v>74</v>
       </c>
@@ -6317,7 +6325,7 @@
       <c r="T43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U43" s="189"/>
+      <c r="U43" s="188"/>
     </row>
     <row r="44" spans="1:22" ht="45">
       <c r="A44" s="7">
@@ -6692,26 +6700,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
@@ -6724,13 +6719,26 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -6793,8 +6801,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D11"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6903,30 +6911,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="146"/>
+      <c r="D10" s="176"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="146"/>
+      <c r="D11" s="176"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="136"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -6936,8 +6944,10 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+      <c r="C13" s="154" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="153"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
@@ -6970,15 +6980,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -6988,14 +6998,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="174"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -7010,12 +7020,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -7030,12 +7040,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -7050,12 +7060,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -7078,15 +7088,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="177"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -7097,14 +7107,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -7118,14 +7128,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -7142,14 +7152,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -7166,14 +7176,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -7190,14 +7200,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -7208,13 +7218,17 @@
       <c r="T27"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="94"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="A28" s="94">
+        <v>5</v>
+      </c>
+      <c r="B28" s="169" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -7230,12 +7244,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -7270,29 +7284,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="177"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -7308,12 +7322,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="185"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="199"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -7329,12 +7343,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="186"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="193"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -7349,12 +7363,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="187"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="194"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -7416,28 +7430,28 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="191" t="s">
+      <c r="A39" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="191" t="s">
+      <c r="B39" s="196" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="191" t="s">
+      <c r="D39" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="191" t="s">
+      <c r="E39" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="191" t="s">
+      <c r="F39" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="191" t="s">
+      <c r="G39" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="191" t="s">
+      <c r="H39" s="196" t="s">
         <v>93</v>
       </c>
       <c r="I39" s="204" t="s">
@@ -7449,43 +7463,43 @@
       <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="197" t="s">
+      <c r="L39" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="188" t="s">
+      <c r="M39" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="201" t="s">
+      <c r="N39" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="202"/>
-      <c r="P39" s="203" t="s">
+      <c r="O39" s="201"/>
+      <c r="P39" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="202"/>
+      <c r="Q39" s="201"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="191" t="s">
+      <c r="S39" s="196" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="200"/>
-      <c r="B40" s="200"/>
+      <c r="A40" s="203"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="203"/>
+      <c r="H40" s="203"/>
       <c r="I40" s="205"/>
       <c r="J40" s="207"/>
       <c r="K40" s="207"/>
       <c r="L40" s="208"/>
-      <c r="M40" s="199"/>
+      <c r="M40" s="192"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -7501,7 +7515,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="200"/>
+      <c r="S40" s="203"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -7703,25 +7717,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -7734,12 +7735,25 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -7921,20 +7935,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="146"/>
+      <c r="D13" s="176"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="146"/>
+      <c r="D14" s="176"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -7947,10 +7961,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="136"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -7966,8 +7980,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -8035,15 +8049,15 @@
       <c r="N19"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -8055,14 +8069,14 @@
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="174"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -8080,12 +8094,12 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="93"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -8103,12 +8117,12 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="94"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
@@ -8120,12 +8134,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="95"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -8151,15 +8165,15 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="177"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -8171,14 +8185,14 @@
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -8198,14 +8212,14 @@
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="162" t="s">
+      <c r="B28" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
       <c r="H28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
@@ -8219,14 +8233,14 @@
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
@@ -8240,14 +8254,14 @@
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
@@ -8259,12 +8273,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="94"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
@@ -8282,12 +8296,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="95"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -8326,15 +8340,15 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="177"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
@@ -8346,14 +8360,14 @@
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="161" t="s">
+      <c r="B35" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -8371,12 +8385,12 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="93"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="185"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="199"/>
       <c r="H36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
@@ -8388,12 +8402,12 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="94"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="186"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="193"/>
       <c r="H37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
@@ -8405,12 +8419,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="95"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="187"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="194"/>
       <c r="H38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
@@ -8471,82 +8485,82 @@
       <c r="U41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="190" t="s">
+      <c r="C42" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="188" t="s">
+      <c r="D42" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="191" t="s">
+      <c r="E42" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="191" t="s">
+      <c r="F42" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="188" t="s">
+      <c r="G42" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="188" t="s">
+      <c r="H42" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="196" t="s">
+      <c r="I42" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="196" t="s">
+      <c r="J42" s="189" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="196" t="s">
+      <c r="K42" s="189" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="197" t="s">
+      <c r="L42" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="197" t="s">
+      <c r="M42" s="190" t="s">
         <v>206</v>
       </c>
-      <c r="N42" s="197" t="s">
+      <c r="N42" s="190" t="s">
         <v>207</v>
       </c>
-      <c r="O42" s="188" t="s">
+      <c r="O42" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="P42" s="194" t="s">
+      <c r="P42" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="195"/>
-      <c r="R42" s="194" t="s">
+      <c r="Q42" s="186"/>
+      <c r="R42" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="195"/>
+      <c r="S42" s="186"/>
       <c r="T42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="U42" s="188" t="s">
+      <c r="U42" s="187" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="189"/>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="196"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="199"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="191"/>
+      <c r="O43" s="192"/>
       <c r="P43" s="26" t="s">
         <v>74</v>
       </c>
@@ -8562,7 +8576,7 @@
       <c r="T43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U43" s="189"/>
+      <c r="U43" s="188"/>
     </row>
     <row r="44" spans="1:22" ht="45">
       <c r="A44" s="7">
@@ -8935,29 +8949,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
@@ -8974,6 +8965,29 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A20:G20"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -9146,30 +9160,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="146"/>
+      <c r="D10" s="176"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="146"/>
+      <c r="D11" s="176"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="136"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -9179,8 +9193,8 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
@@ -9213,15 +9227,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -9231,14 +9245,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="174"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -9253,12 +9267,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -9273,12 +9287,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -9293,12 +9307,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -9321,15 +9335,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="177"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -9340,14 +9354,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -9361,14 +9375,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -9385,14 +9399,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -9409,14 +9423,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -9433,14 +9447,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -9452,12 +9466,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -9473,12 +9487,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -9513,29 +9527,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="177"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -9551,12 +9565,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="185"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="199"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -9572,12 +9586,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="186"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="193"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -9592,12 +9606,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="187"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="194"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -9659,28 +9673,28 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="191" t="s">
+      <c r="A39" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="191" t="s">
+      <c r="B39" s="196" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="191" t="s">
+      <c r="D39" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="191" t="s">
+      <c r="E39" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="191" t="s">
+      <c r="F39" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="191" t="s">
+      <c r="G39" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="191" t="s">
+      <c r="H39" s="196" t="s">
         <v>108</v>
       </c>
       <c r="I39" s="204" t="s">
@@ -9692,43 +9706,43 @@
       <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="197" t="s">
+      <c r="L39" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="188" t="s">
+      <c r="M39" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="201" t="s">
+      <c r="N39" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="202"/>
-      <c r="P39" s="203" t="s">
+      <c r="O39" s="201"/>
+      <c r="P39" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="202"/>
+      <c r="Q39" s="201"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="191" t="s">
+      <c r="S39" s="196" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="200"/>
-      <c r="B40" s="200"/>
+      <c r="A40" s="203"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="203"/>
+      <c r="H40" s="203"/>
       <c r="I40" s="205"/>
       <c r="J40" s="207"/>
       <c r="K40" s="207"/>
       <c r="L40" s="208"/>
-      <c r="M40" s="199"/>
+      <c r="M40" s="192"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -9744,7 +9758,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="200"/>
+      <c r="S40" s="203"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -9946,27 +9960,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B34:G34"/>
@@ -9983,6 +9976,27 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10164,20 +10178,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="146"/>
+      <c r="D13" s="176"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="146"/>
+      <c r="D14" s="176"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -10190,10 +10204,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="136"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -10209,8 +10223,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -10278,15 +10292,15 @@
       <c r="N19"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -10298,14 +10312,14 @@
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="174"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -10323,12 +10337,12 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="93"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -10346,12 +10360,12 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="94"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
@@ -10363,12 +10377,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="95"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -10394,15 +10408,15 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="177"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -10414,14 +10428,14 @@
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -10441,14 +10455,14 @@
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="162" t="s">
+      <c r="B28" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
       <c r="H28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
@@ -10462,14 +10476,14 @@
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
@@ -10483,14 +10497,14 @@
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
@@ -10502,12 +10516,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="94"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
@@ -10525,12 +10539,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="95"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -10569,15 +10583,15 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="177"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
@@ -10589,14 +10603,14 @@
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="161" t="s">
+      <c r="B35" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -10614,12 +10628,12 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="93"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="185"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="199"/>
       <c r="H36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
@@ -10631,12 +10645,12 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="94"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="186"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="193"/>
       <c r="H37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
@@ -10648,12 +10662,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="95"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="187"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="194"/>
       <c r="H38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
@@ -10714,82 +10728,82 @@
       <c r="U41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="190" t="s">
+      <c r="C42" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="188" t="s">
+      <c r="D42" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="191" t="s">
+      <c r="E42" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="191" t="s">
+      <c r="F42" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="188" t="s">
+      <c r="G42" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="188" t="s">
+      <c r="H42" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="196" t="s">
+      <c r="I42" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="196" t="s">
+      <c r="J42" s="189" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="196" t="s">
+      <c r="K42" s="189" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="197" t="s">
+      <c r="L42" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="197" t="s">
+      <c r="M42" s="190" t="s">
         <v>206</v>
       </c>
-      <c r="N42" s="197" t="s">
+      <c r="N42" s="190" t="s">
         <v>207</v>
       </c>
-      <c r="O42" s="188" t="s">
+      <c r="O42" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="P42" s="194" t="s">
+      <c r="P42" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="195"/>
-      <c r="R42" s="194" t="s">
+      <c r="Q42" s="186"/>
+      <c r="R42" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="195"/>
+      <c r="S42" s="186"/>
       <c r="T42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="U42" s="188" t="s">
+      <c r="U42" s="187" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="189"/>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="196"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="199"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="191"/>
+      <c r="O43" s="192"/>
       <c r="P43" s="26" t="s">
         <v>74</v>
       </c>
@@ -10805,7 +10819,7 @@
       <c r="T43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U43" s="189"/>
+      <c r="U43" s="188"/>
     </row>
     <row r="44" spans="1:22" ht="45">
       <c r="A44" s="7">
@@ -11180,26 +11194,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
@@ -11212,13 +11213,26 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -11391,30 +11405,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="146"/>
+      <c r="D10" s="176"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="146"/>
+      <c r="D11" s="176"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="136"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -11424,8 +11438,8 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
@@ -11458,15 +11472,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -11476,14 +11490,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="174"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -11498,12 +11512,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -11518,12 +11532,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -11538,12 +11552,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -11566,15 +11580,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="177"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -11585,14 +11599,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -11606,14 +11620,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -11630,14 +11644,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -11654,14 +11668,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -11678,14 +11692,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -11697,12 +11711,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -11718,12 +11732,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -11758,29 +11772,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="177"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -11796,12 +11810,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="185"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="199"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -11817,12 +11831,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="186"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="193"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -11837,12 +11851,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="187"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="194"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -11904,28 +11918,28 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="191" t="s">
+      <c r="A39" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="191" t="s">
+      <c r="B39" s="196" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="191" t="s">
+      <c r="D39" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="191" t="s">
+      <c r="E39" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="191" t="s">
+      <c r="F39" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="191" t="s">
+      <c r="G39" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="191" t="s">
+      <c r="H39" s="196" t="s">
         <v>93</v>
       </c>
       <c r="I39" s="204" t="s">
@@ -11937,43 +11951,43 @@
       <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="197" t="s">
+      <c r="L39" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="188" t="s">
+      <c r="M39" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="201" t="s">
+      <c r="N39" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="202"/>
-      <c r="P39" s="203" t="s">
+      <c r="O39" s="201"/>
+      <c r="P39" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="202"/>
+      <c r="Q39" s="201"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="191" t="s">
+      <c r="S39" s="196" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="200"/>
-      <c r="B40" s="200"/>
+      <c r="A40" s="203"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="203"/>
+      <c r="H40" s="203"/>
       <c r="I40" s="205"/>
       <c r="J40" s="207"/>
       <c r="K40" s="207"/>
       <c r="L40" s="208"/>
-      <c r="M40" s="199"/>
+      <c r="M40" s="192"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -11989,7 +12003,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="200"/>
+      <c r="S40" s="203"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -12191,25 +12205,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -12222,12 +12223,25 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12409,20 +12423,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="146"/>
+      <c r="D13" s="176"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="146"/>
+      <c r="D14" s="176"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -12433,10 +12447,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="136"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -12450,8 +12464,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -12511,15 +12525,15 @@
       <c r="L19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -12529,14 +12543,14 @@
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="174"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -12552,12 +12566,12 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="93"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -12573,12 +12587,12 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="94"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="89"/>
       <c r="M23" s="89"/>
       <c r="N23" s="89"/>
@@ -12590,12 +12604,12 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="95"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -12617,15 +12631,15 @@
       <c r="L25" s="82"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="177"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -12635,14 +12649,14 @@
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -12660,14 +12674,14 @@
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="162" t="s">
+      <c r="B28" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
       <c r="H28" s="89"/>
       <c r="M28" s="89"/>
       <c r="N28" s="89"/>
@@ -12681,14 +12695,14 @@
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="89"/>
       <c r="M29" s="89"/>
       <c r="N29" s="89"/>
@@ -12702,14 +12716,14 @@
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="89"/>
       <c r="M30" s="89"/>
       <c r="N30" s="89"/>
@@ -12721,12 +12735,12 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="94"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
@@ -12742,12 +12756,12 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="95"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -12782,15 +12796,15 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="177"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
@@ -12800,14 +12814,14 @@
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="161" t="s">
+      <c r="B35" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -12823,12 +12837,12 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="93"/>
-      <c r="B36" s="162"/>
-      <c r="C36" s="162"/>
-      <c r="D36" s="162"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="165"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="172"/>
       <c r="H36" s="89"/>
       <c r="M36" s="89"/>
       <c r="N36" s="89"/>
@@ -12840,12 +12854,12 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="94"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="186"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="193"/>
       <c r="H37" s="89"/>
       <c r="M37" s="89"/>
       <c r="N37" s="89"/>
@@ -12857,12 +12871,12 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="95"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="187"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="194"/>
       <c r="H38" s="89"/>
       <c r="M38" s="89"/>
       <c r="N38" s="89"/>
@@ -12919,74 +12933,74 @@
       <c r="S41" s="5"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="190" t="s">
+      <c r="C42" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="188" t="s">
+      <c r="D42" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="191" t="s">
+      <c r="E42" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="191" t="s">
+      <c r="F42" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="188" t="s">
+      <c r="G42" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="188" t="s">
+      <c r="H42" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="196" t="s">
+      <c r="I42" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="196" t="s">
+      <c r="J42" s="189" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="196" t="s">
+      <c r="K42" s="189" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="197" t="s">
+      <c r="L42" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="188" t="s">
+      <c r="M42" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="N42" s="194" t="s">
+      <c r="N42" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="195"/>
-      <c r="P42" s="194" t="s">
+      <c r="O42" s="186"/>
+      <c r="P42" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="195"/>
+      <c r="Q42" s="186"/>
       <c r="R42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="188" t="s">
+      <c r="S42" s="187" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="189"/>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="196"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="199"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="192"/>
       <c r="N43" s="26" t="s">
         <v>74</v>
       </c>
@@ -13002,7 +13016,7 @@
       <c r="R43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="189"/>
+      <c r="S43" s="188"/>
     </row>
     <row r="44" spans="1:20" ht="45">
       <c r="A44" s="7">
@@ -13311,13 +13325,24 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
@@ -13330,24 +13355,13 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13407,7 +13421,7 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
@@ -13517,30 +13531,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="146"/>
+      <c r="D10" s="176"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="146"/>
+      <c r="D11" s="176"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="136"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -13550,8 +13564,8 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
@@ -13584,15 +13598,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -13602,14 +13616,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="174"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -13624,12 +13638,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -13644,12 +13658,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -13664,12 +13678,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -13692,15 +13706,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="177"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -13711,14 +13725,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -13732,14 +13746,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -13756,14 +13770,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -13780,14 +13794,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -13804,14 +13818,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -13823,12 +13837,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -13844,12 +13858,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -13884,29 +13898,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="177"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -13922,12 +13936,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="185"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="199"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -13943,12 +13957,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="186"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="193"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -13963,12 +13977,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="187"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="194"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -14030,28 +14044,28 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="191" t="s">
+      <c r="A39" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="191" t="s">
+      <c r="B39" s="196" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="191" t="s">
+      <c r="D39" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="191" t="s">
+      <c r="E39" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="191" t="s">
+      <c r="F39" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="191" t="s">
+      <c r="G39" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="191" t="s">
+      <c r="H39" s="196" t="s">
         <v>93</v>
       </c>
       <c r="I39" s="204" t="s">
@@ -14063,43 +14077,43 @@
       <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="197" t="s">
+      <c r="L39" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="188" t="s">
+      <c r="M39" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="201" t="s">
+      <c r="N39" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="202"/>
-      <c r="P39" s="203" t="s">
+      <c r="O39" s="201"/>
+      <c r="P39" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="202"/>
+      <c r="Q39" s="201"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="191" t="s">
+      <c r="S39" s="196" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="200"/>
-      <c r="B40" s="200"/>
+      <c r="A40" s="203"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="203"/>
+      <c r="H40" s="203"/>
       <c r="I40" s="205"/>
       <c r="J40" s="207"/>
       <c r="K40" s="207"/>
       <c r="L40" s="208"/>
-      <c r="M40" s="199"/>
+      <c r="M40" s="192"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -14115,7 +14129,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="200"/>
+      <c r="S40" s="203"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -14317,12 +14331,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -14335,25 +14362,12 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/blanco-meta/rest/SampleMethodTest.xlsx
+++ b/blanco-meta/rest/SampleMethodTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/rest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20AC43D-5124-6140-B93B-F2C2DDE9CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D7B52-11D3-B34F-B521-D9920C360388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -2191,25 +2191,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>javax.validation.constraints.Size</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>@field:Size(max = 50)
 @field:NotBlank
 @field:Pattern(regexp = "^((?=.*[a-z])(?=.*[A-Z])(?=.*[0-9])|(?=.*[a-z])(?=.*[A-Z])(?=.*[@%\\+\\/\\\'!#\\$\\^\\?:\\.\\(\\)\\{\\}\\[\\]~\\-_])|(?=.*[a-z])(?=.*[0-9])(?=.*[@%\\+\\/\\\'!#\\$\\^\\?:\\.\\(\\)\\{\\}\\[\\]~\\-_])|(?=.*[A-Z])(?=.*[0-9])(?=.*[@%\\+\\/\\\'!#\\$\\^\\?:\\.\\(\\)\\{\\}\\[\\]~\\-_]))[a-zA-Z0-9@%\\+\\/\\\'!#\\$\\^\\?:\\.\\(\\)\\{\\}\\[\\]~\\-_]{8,20}$")</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>javax.validation.constraints.NotBlank</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>javax.validation.constraints.Pattern</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>javax.validation.Valid</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2387,6 +2371,22 @@
   </si>
   <si>
     <t>io.micronaut.serde.annotation.Serdeable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.Size</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.NotBlank</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.Pattern</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.Valid</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3679,6 +3679,93 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3687,9 +3774,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3733,89 +3817,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3823,10 +3848,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3839,25 +3860,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3867,9 +3870,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4372,77 +4372,77 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="176" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="176"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="146"/>
     </row>
     <row r="7" spans="1:6" ht="91.5" customHeight="1">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="177" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="178"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="147" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="148"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="176"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="146"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="175"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="176"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="146"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="175"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="176"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="146"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="134" t="s">
@@ -4450,10 +4450,10 @@
       </c>
       <c r="B12" s="134"/>
       <c r="C12" s="134"/>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="153"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="1" t="s">
         <v>131</v>
       </c>
@@ -4464,8 +4464,8 @@
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="134"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="1" t="s">
         <v>154</v>
       </c>
@@ -4476,10 +4476,10 @@
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="153"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="1" t="s">
         <v>161</v>
       </c>
@@ -4490,10 +4490,10 @@
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
-      <c r="D15" s="154" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="153"/>
+      <c r="D15" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="136"/>
       <c r="F15" s="1" t="s">
         <v>163</v>
       </c>
@@ -4504,10 +4504,10 @@
       </c>
       <c r="B16" s="134"/>
       <c r="C16" s="134"/>
-      <c r="D16" s="154" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="153"/>
+      <c r="D16" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="136"/>
       <c r="F16" s="1" t="s">
         <v>165</v>
       </c>
@@ -4518,28 +4518,28 @@
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="134"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="153"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="150" t="s">
+      <c r="A18" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="184"/>
       <c r="D18" s="91" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="170"/>
       <c r="D19" s="77"/>
       <c r="E19" t="s">
         <v>134</v>
@@ -4557,15 +4557,15 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="147" t="s">
+      <c r="A21" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="149"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="181"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="78" t="s">
@@ -4592,7 +4592,7 @@
       <c r="B23" s="90"/>
       <c r="C23" s="76"/>
       <c r="D23" s="73" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E23" s="74"/>
       <c r="F23" s="74"/>
@@ -4613,28 +4613,28 @@
       <c r="C25"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="142"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="174"/>
       <c r="H27" s="82"/>
       <c r="I27" s="82"/>
       <c r="J27" s="82"/>
@@ -4645,12 +4645,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="93"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
       <c r="H28" s="89"/>
       <c r="I28" s="89"/>
       <c r="J28" s="89"/>
@@ -4661,12 +4661,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="94"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
       <c r="H29" s="89"/>
       <c r="I29" s="89"/>
       <c r="J29" s="89"/>
@@ -4677,12 +4677,12 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="95"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
       <c r="H30" s="89"/>
       <c r="I30" s="89"/>
       <c r="J30" s="89"/>
@@ -4695,28 +4695,28 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="143" t="s">
+      <c r="A32" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="145"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="177"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="168" t="s">
+      <c r="B33" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
       <c r="H33" s="82"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
@@ -4727,12 +4727,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="93"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -4743,12 +4743,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="94"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -4759,12 +4759,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="95"/>
-      <c r="B36" s="171"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
       <c r="H36" s="89"/>
       <c r="I36" s="89"/>
       <c r="J36" s="89"/>
@@ -4789,28 +4789,28 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="143" t="s">
+      <c r="A38" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="145"/>
+      <c r="B38" s="176"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="177"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
       <c r="H39" s="82"/>
       <c r="I39" s="82"/>
       <c r="J39" s="82"/>
@@ -4823,14 +4823,14 @@
       <c r="A40" s="93">
         <v>1</v>
       </c>
-      <c r="B40" s="169" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="172"/>
+      <c r="B40" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="165"/>
       <c r="H40" s="89"/>
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
@@ -4841,12 +4841,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="94"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="173"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="166"/>
       <c r="H41" s="89"/>
       <c r="I41" s="89"/>
       <c r="J41" s="89"/>
@@ -4857,12 +4857,12 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="95"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="174"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="167"/>
       <c r="H42" s="89"/>
       <c r="I42" s="89"/>
       <c r="J42" s="89"/>
@@ -4898,96 +4898,117 @@
       <c r="G44" s="109"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="138" t="s">
+      <c r="A45" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="139"/>
-      <c r="C45" s="138" t="s">
+      <c r="B45" s="171"/>
+      <c r="C45" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="183"/>
-      <c r="E45" s="184"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="144"/>
       <c r="F45" s="110" t="s">
         <v>155</v>
       </c>
       <c r="G45" s="109"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="155"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="162"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="164"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="141"/>
       <c r="F46" s="3"/>
       <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="155"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="162"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="164"/>
+      <c r="A47" s="137"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="141"/>
       <c r="F47" s="3"/>
       <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="155"/>
-      <c r="B48" s="156"/>
-      <c r="C48" s="162"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="164"/>
+      <c r="A48" s="137"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="141"/>
       <c r="F48" s="3"/>
       <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="155"/>
-      <c r="B49" s="156"/>
-      <c r="C49" s="162"/>
-      <c r="D49" s="163"/>
-      <c r="E49" s="164"/>
+      <c r="A49" s="137"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="141"/>
       <c r="F49" s="3"/>
       <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="155"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="163"/>
-      <c r="E50" s="164"/>
+      <c r="A50" s="137"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="141"/>
       <c r="F50" s="3"/>
       <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="155"/>
-      <c r="B51" s="156"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="163"/>
-      <c r="E51" s="164"/>
+      <c r="A51" s="137"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="141"/>
       <c r="F51" s="3"/>
       <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="166"/>
-      <c r="E52" s="167"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="158"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="160"/>
       <c r="F52" s="102"/>
       <c r="G52" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
@@ -5004,38 +5025,17 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5453,13 +5453,13 @@
         <v>149</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5483,10 +5483,10 @@
         <v>111</v>
       </c>
       <c r="H5" s="131" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5504,10 +5504,10 @@
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="132" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="H7" s="133"/>
       <c r="I7" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5551,7 +5551,7 @@
   <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D14"/>
+      <selection activeCell="B31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D7" s="103"/>
       <c r="S7"/>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="97" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -5684,20 +5684,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="176"/>
+      <c r="C13" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="146"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="176"/>
+      <c r="C14" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="146"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -5710,10 +5710,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="153"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -5729,8 +5729,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -5798,15 +5798,15 @@
       <c r="N19"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -5818,14 +5818,14 @@
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="142"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -5843,12 +5843,12 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="93"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -5866,12 +5866,12 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="94"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
@@ -5883,12 +5883,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="95"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -5914,15 +5914,15 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="177"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -5934,14 +5934,14 @@
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -5961,14 +5961,14 @@
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
@@ -5982,14 +5982,14 @@
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
@@ -6003,14 +6003,14 @@
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
+      <c r="B30" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
       <c r="H30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
@@ -6022,12 +6022,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="94"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
@@ -6045,12 +6045,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="95"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -6089,15 +6089,15 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="177"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
@@ -6109,14 +6109,14 @@
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -6134,12 +6134,12 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="93"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="199"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
@@ -6151,12 +6151,12 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="94"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="193"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
@@ -6168,12 +6168,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="95"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="194"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="187"/>
       <c r="H38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
@@ -6234,82 +6234,82 @@
       <c r="U41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="187" t="s">
+      <c r="A42" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="195" t="s">
+      <c r="C42" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="187" t="s">
+      <c r="D42" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="196" t="s">
+      <c r="E42" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="196" t="s">
+      <c r="F42" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="187" t="s">
+      <c r="G42" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="187" t="s">
+      <c r="H42" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="189" t="s">
+      <c r="I42" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="189" t="s">
+      <c r="J42" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="189" t="s">
+      <c r="K42" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="190" t="s">
+      <c r="L42" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="190" t="s">
-        <v>206</v>
-      </c>
-      <c r="N42" s="190" t="s">
-        <v>207</v>
-      </c>
-      <c r="O42" s="187" t="s">
+      <c r="M42" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="N42" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="O42" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="P42" s="185" t="s">
+      <c r="P42" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="186"/>
-      <c r="R42" s="185" t="s">
+      <c r="Q42" s="195"/>
+      <c r="R42" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="186"/>
+      <c r="S42" s="195"/>
       <c r="T42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="U42" s="187" t="s">
+      <c r="U42" s="188" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="188"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="191"/>
-      <c r="O43" s="192"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="199"/>
       <c r="P43" s="26" t="s">
         <v>74</v>
       </c>
@@ -6325,17 +6325,17 @@
       <c r="T43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U43" s="188"/>
+      <c r="U43" s="189"/>
     </row>
     <row r="44" spans="1:22" ht="45">
       <c r="A44" s="7">
         <v>1</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>92</v>
@@ -6351,14 +6351,14 @@
       <c r="I44" s="120"/>
       <c r="J44" s="120"/>
       <c r="K44" s="127" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L44" s="120" t="s">
         <v>158</v>
       </c>
       <c r="M44" s="120"/>
       <c r="N44" s="120" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O44" s="23"/>
       <c r="P44" s="19"/>
@@ -6395,7 +6395,7 @@
       <c r="I45" s="121"/>
       <c r="J45" s="121"/>
       <c r="K45" s="128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L45" s="121" t="s">
         <v>158</v>
@@ -6700,13 +6700,26 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
@@ -6719,26 +6732,13 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -6801,8 +6801,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A3" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D7" s="31"/>
       <c r="Q7"/>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D9" s="72"/>
     </row>
@@ -6911,30 +6911,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="176"/>
+      <c r="C10" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="176"/>
+      <c r="C11" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="153"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -6944,10 +6944,10 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="154" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="153"/>
+      <c r="C13" s="135" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="136"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
@@ -6980,15 +6980,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -6998,14 +6998,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="142"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -7020,12 +7020,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -7040,12 +7040,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -7060,12 +7060,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -7088,15 +7088,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -7107,14 +7107,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -7128,14 +7128,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -7152,14 +7152,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="B25" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -7176,14 +7176,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="170" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
+      <c r="B26" s="163" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -7200,14 +7200,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
+      <c r="B27" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -7221,14 +7221,14 @@
       <c r="A28" s="94">
         <v>5</v>
       </c>
-      <c r="B28" s="169" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="162" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -7244,12 +7244,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -7284,29 +7284,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="177"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="168" t="s">
+      <c r="B32" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -7322,12 +7322,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="199"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -7343,12 +7343,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="193"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -7363,12 +7363,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="194"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -7430,28 +7430,28 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="196" t="s">
+      <c r="A39" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="196" t="s">
+      <c r="B39" s="191" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="196" t="s">
+      <c r="D39" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="196" t="s">
+      <c r="E39" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="196" t="s">
+      <c r="F39" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="196" t="s">
+      <c r="G39" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="196" t="s">
+      <c r="H39" s="191" t="s">
         <v>93</v>
       </c>
       <c r="I39" s="204" t="s">
@@ -7463,43 +7463,43 @@
       <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="190" t="s">
+      <c r="L39" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="187" t="s">
+      <c r="M39" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="200" t="s">
+      <c r="N39" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="201"/>
-      <c r="P39" s="202" t="s">
+      <c r="O39" s="202"/>
+      <c r="P39" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="201"/>
+      <c r="Q39" s="202"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="196" t="s">
+      <c r="S39" s="191" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="203"/>
-      <c r="B40" s="203"/>
+      <c r="A40" s="200"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="203"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="203"/>
-      <c r="H40" s="203"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
       <c r="I40" s="205"/>
       <c r="J40" s="207"/>
       <c r="K40" s="207"/>
       <c r="L40" s="208"/>
-      <c r="M40" s="192"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="203"/>
+      <c r="S40" s="200"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -7717,12 +7717,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -7735,25 +7748,12 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -7801,8 +7801,8 @@
   </sheetPr>
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D7" s="103"/>
       <c r="S7"/>
@@ -7935,20 +7935,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="176"/>
+      <c r="C13" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="146"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="176"/>
+      <c r="C14" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="146"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -7961,10 +7961,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="153"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -7980,8 +7980,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -8049,15 +8049,15 @@
       <c r="N19"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -8069,14 +8069,14 @@
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="142"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -8094,12 +8094,12 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="93"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -8117,12 +8117,12 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="94"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
@@ -8134,12 +8134,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="95"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -8165,15 +8165,15 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="177"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -8185,14 +8185,14 @@
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -8212,14 +8212,14 @@
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
@@ -8233,14 +8233,14 @@
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
@@ -8254,14 +8254,14 @@
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
+      <c r="B30" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
       <c r="H30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
@@ -8273,12 +8273,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="94"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
@@ -8296,12 +8296,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="95"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -8340,15 +8340,15 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="177"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
@@ -8360,14 +8360,14 @@
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -8385,12 +8385,12 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="93"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="199"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
@@ -8402,12 +8402,12 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="94"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="193"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
@@ -8419,12 +8419,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="95"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="194"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="187"/>
       <c r="H38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
@@ -8485,82 +8485,82 @@
       <c r="U41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="187" t="s">
+      <c r="A42" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="195" t="s">
+      <c r="C42" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="187" t="s">
+      <c r="D42" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="196" t="s">
+      <c r="E42" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="196" t="s">
+      <c r="F42" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="187" t="s">
+      <c r="G42" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="187" t="s">
+      <c r="H42" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="189" t="s">
+      <c r="I42" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="189" t="s">
+      <c r="J42" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="189" t="s">
+      <c r="K42" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="190" t="s">
+      <c r="L42" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="190" t="s">
-        <v>206</v>
-      </c>
-      <c r="N42" s="190" t="s">
-        <v>207</v>
-      </c>
-      <c r="O42" s="187" t="s">
+      <c r="M42" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="N42" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="O42" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="P42" s="185" t="s">
+      <c r="P42" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="186"/>
-      <c r="R42" s="185" t="s">
+      <c r="Q42" s="195"/>
+      <c r="R42" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="186"/>
+      <c r="S42" s="195"/>
       <c r="T42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="U42" s="187" t="s">
+      <c r="U42" s="188" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="188"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="191"/>
-      <c r="O43" s="192"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="199"/>
       <c r="P43" s="26" t="s">
         <v>74</v>
       </c>
@@ -8576,17 +8576,17 @@
       <c r="T43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U43" s="188"/>
+      <c r="U43" s="189"/>
     </row>
     <row r="44" spans="1:22" ht="45">
       <c r="A44" s="7">
         <v>1</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>92</v>
@@ -8602,14 +8602,14 @@
       <c r="I44" s="120"/>
       <c r="J44" s="120"/>
       <c r="K44" s="127" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L44" s="120" t="s">
         <v>158</v>
       </c>
       <c r="M44" s="120"/>
       <c r="N44" s="120" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O44" s="23"/>
       <c r="P44" s="19"/>
@@ -8646,7 +8646,7 @@
       <c r="I45" s="121"/>
       <c r="J45" s="121"/>
       <c r="K45" s="128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L45" s="121" t="s">
         <v>158</v>
@@ -8949,6 +8949,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
@@ -8965,29 +8988,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -9051,7 +9051,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D11"/>
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D7" s="31"/>
       <c r="Q7"/>
@@ -9160,30 +9160,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="176"/>
+      <c r="C10" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="176"/>
+      <c r="C11" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="153"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -9193,8 +9193,8 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
@@ -9227,15 +9227,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -9245,14 +9245,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="142"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -9267,12 +9267,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -9287,12 +9287,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -9307,12 +9307,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -9335,15 +9335,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -9354,14 +9354,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -9375,14 +9375,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -9399,14 +9399,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="B25" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -9423,14 +9423,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="170" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
+      <c r="B26" s="163" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -9447,14 +9447,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
+      <c r="B27" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -9466,12 +9466,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -9487,12 +9487,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -9527,29 +9527,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="177"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="168" t="s">
+      <c r="B32" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -9565,12 +9565,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="199"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -9586,12 +9586,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="193"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -9606,12 +9606,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="194"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -9673,28 +9673,28 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="196" t="s">
+      <c r="A39" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="196" t="s">
+      <c r="B39" s="191" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="196" t="s">
+      <c r="D39" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="196" t="s">
+      <c r="E39" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="196" t="s">
+      <c r="F39" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="196" t="s">
+      <c r="G39" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="196" t="s">
+      <c r="H39" s="191" t="s">
         <v>108</v>
       </c>
       <c r="I39" s="204" t="s">
@@ -9706,43 +9706,43 @@
       <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="190" t="s">
+      <c r="L39" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="187" t="s">
+      <c r="M39" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="200" t="s">
+      <c r="N39" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="201"/>
-      <c r="P39" s="202" t="s">
+      <c r="O39" s="202"/>
+      <c r="P39" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="201"/>
+      <c r="Q39" s="202"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="196" t="s">
+      <c r="S39" s="191" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="203"/>
-      <c r="B40" s="203"/>
+      <c r="A40" s="200"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="203"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="203"/>
-      <c r="H40" s="203"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
       <c r="I40" s="205"/>
       <c r="J40" s="207"/>
       <c r="K40" s="207"/>
       <c r="L40" s="208"/>
-      <c r="M40" s="192"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -9758,7 +9758,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="203"/>
+      <c r="S40" s="200"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -9960,6 +9960,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B34:G34"/>
@@ -9976,27 +9997,6 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10045,7 +10045,7 @@
   <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D14"/>
+      <selection activeCell="B31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10124,7 +10124,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D7" s="103"/>
       <c r="S7"/>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="97" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -10178,20 +10178,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="176"/>
+      <c r="C13" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="146"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="176"/>
+      <c r="C14" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="146"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -10204,10 +10204,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="153"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -10223,8 +10223,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -10292,15 +10292,15 @@
       <c r="N19"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -10312,14 +10312,14 @@
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="142"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -10337,12 +10337,12 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="93"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -10360,12 +10360,12 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="94"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
@@ -10377,12 +10377,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="95"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -10408,15 +10408,15 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="177"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -10428,14 +10428,14 @@
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -10455,14 +10455,14 @@
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
@@ -10476,14 +10476,14 @@
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
@@ -10497,14 +10497,14 @@
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
+      <c r="B30" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
       <c r="H30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
@@ -10516,12 +10516,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="94"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
@@ -10539,12 +10539,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="95"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -10583,15 +10583,15 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="177"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
@@ -10603,14 +10603,14 @@
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -10628,12 +10628,12 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="93"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="199"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
@@ -10645,12 +10645,12 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="94"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="193"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
@@ -10662,12 +10662,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="95"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="194"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="187"/>
       <c r="H38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
@@ -10728,82 +10728,82 @@
       <c r="U41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="187" t="s">
+      <c r="A42" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="195" t="s">
+      <c r="C42" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="187" t="s">
+      <c r="D42" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="196" t="s">
+      <c r="E42" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="196" t="s">
+      <c r="F42" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="187" t="s">
+      <c r="G42" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="187" t="s">
+      <c r="H42" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="189" t="s">
+      <c r="I42" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="189" t="s">
+      <c r="J42" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="189" t="s">
+      <c r="K42" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="190" t="s">
+      <c r="L42" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="190" t="s">
-        <v>206</v>
-      </c>
-      <c r="N42" s="190" t="s">
-        <v>207</v>
-      </c>
-      <c r="O42" s="187" t="s">
+      <c r="M42" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="N42" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="O42" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="P42" s="185" t="s">
+      <c r="P42" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="186"/>
-      <c r="R42" s="185" t="s">
+      <c r="Q42" s="195"/>
+      <c r="R42" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="186"/>
+      <c r="S42" s="195"/>
       <c r="T42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="U42" s="187" t="s">
+      <c r="U42" s="188" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="188"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="191"/>
-      <c r="O43" s="192"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="199"/>
       <c r="P43" s="26" t="s">
         <v>74</v>
       </c>
@@ -10819,17 +10819,17 @@
       <c r="T43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U43" s="188"/>
+      <c r="U43" s="189"/>
     </row>
     <row r="44" spans="1:22" ht="45">
       <c r="A44" s="7">
         <v>1</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>92</v>
@@ -10845,14 +10845,14 @@
       <c r="I44" s="120"/>
       <c r="J44" s="120"/>
       <c r="K44" s="127" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L44" s="120" t="s">
         <v>158</v>
       </c>
       <c r="M44" s="120"/>
       <c r="N44" s="120" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O44" s="23"/>
       <c r="P44" s="19"/>
@@ -10889,14 +10889,14 @@
       <c r="I45" s="121"/>
       <c r="J45" s="121"/>
       <c r="K45" s="128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L45" s="121" t="s">
         <v>158</v>
       </c>
       <c r="M45" s="121"/>
       <c r="N45" s="121" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O45" s="23"/>
       <c r="P45" s="19"/>
@@ -11194,13 +11194,26 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
@@ -11213,26 +11226,13 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -11296,7 +11296,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D11"/>
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D7" s="31"/>
       <c r="Q7"/>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="65" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D9" s="72"/>
     </row>
@@ -11405,30 +11405,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="176"/>
+      <c r="C10" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="176"/>
+      <c r="C11" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="153"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -11438,8 +11438,8 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
@@ -11472,15 +11472,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -11490,14 +11490,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="142"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -11512,12 +11512,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -11532,12 +11532,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -11552,12 +11552,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -11580,15 +11580,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -11599,14 +11599,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -11620,14 +11620,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -11644,14 +11644,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="B25" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -11668,14 +11668,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="170" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
+      <c r="B26" s="163" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -11692,14 +11692,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
+      <c r="B27" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -11711,12 +11711,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -11732,12 +11732,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -11772,29 +11772,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="177"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="168" t="s">
+      <c r="B32" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -11810,12 +11810,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="199"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -11831,12 +11831,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="193"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -11851,12 +11851,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="194"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -11918,28 +11918,28 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="196" t="s">
+      <c r="A39" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="196" t="s">
+      <c r="B39" s="191" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="196" t="s">
+      <c r="D39" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="196" t="s">
+      <c r="E39" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="196" t="s">
+      <c r="F39" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="196" t="s">
+      <c r="G39" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="196" t="s">
+      <c r="H39" s="191" t="s">
         <v>93</v>
       </c>
       <c r="I39" s="204" t="s">
@@ -11951,43 +11951,43 @@
       <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="190" t="s">
+      <c r="L39" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="187" t="s">
+      <c r="M39" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="200" t="s">
+      <c r="N39" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="201"/>
-      <c r="P39" s="202" t="s">
+      <c r="O39" s="202"/>
+      <c r="P39" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="201"/>
+      <c r="Q39" s="202"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="196" t="s">
+      <c r="S39" s="191" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="203"/>
-      <c r="B40" s="203"/>
+      <c r="A40" s="200"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="203"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="203"/>
-      <c r="H40" s="203"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
       <c r="I40" s="205"/>
       <c r="J40" s="207"/>
       <c r="K40" s="207"/>
       <c r="L40" s="208"/>
-      <c r="M40" s="192"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -12003,7 +12003,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="203"/>
+      <c r="S40" s="200"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -12205,12 +12205,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -12223,25 +12236,12 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12289,8 +12289,8 @@
   </sheetPr>
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D7" s="103"/>
       <c r="Q7"/>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="97" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -12423,20 +12423,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="176"/>
+      <c r="C13" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="146"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="176"/>
+      <c r="C14" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="146"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -12447,10 +12447,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="153"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
@@ -12464,8 +12464,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -12525,15 +12525,15 @@
       <c r="L19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -12543,14 +12543,14 @@
       <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="142"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
       <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -12566,12 +12566,12 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="93"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -12587,12 +12587,12 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="94"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="89"/>
       <c r="M23" s="89"/>
       <c r="N23" s="89"/>
@@ -12604,12 +12604,12 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="95"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -12631,15 +12631,15 @@
       <c r="L25" s="82"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="177"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -12649,14 +12649,14 @@
       <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -12674,14 +12674,14 @@
       <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="M28" s="89"/>
       <c r="N28" s="89"/>
@@ -12695,14 +12695,14 @@
       <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="B29" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
       <c r="H29" s="89"/>
       <c r="M29" s="89"/>
       <c r="N29" s="89"/>
@@ -12716,14 +12716,14 @@
       <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
+      <c r="B30" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
       <c r="H30" s="89"/>
       <c r="M30" s="89"/>
       <c r="N30" s="89"/>
@@ -12735,12 +12735,12 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="94"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
       <c r="H31" s="89"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
@@ -12756,12 +12756,12 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="95"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="89"/>
@@ -12796,15 +12796,15 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="177"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
       <c r="K34" s="89"/>
@@ -12814,14 +12814,14 @@
       <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -12837,12 +12837,12 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="93"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="172"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="165"/>
       <c r="H36" s="89"/>
       <c r="M36" s="89"/>
       <c r="N36" s="89"/>
@@ -12854,12 +12854,12 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="94"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="193"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="89"/>
       <c r="M37" s="89"/>
       <c r="N37" s="89"/>
@@ -12871,12 +12871,12 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="95"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="194"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="187"/>
       <c r="H38" s="89"/>
       <c r="M38" s="89"/>
       <c r="N38" s="89"/>
@@ -12933,74 +12933,74 @@
       <c r="S41" s="5"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="187" t="s">
+      <c r="A42" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="195" t="s">
+      <c r="C42" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="187" t="s">
+      <c r="D42" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="196" t="s">
+      <c r="E42" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="196" t="s">
+      <c r="F42" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="187" t="s">
+      <c r="G42" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="187" t="s">
+      <c r="H42" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="189" t="s">
+      <c r="I42" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="189" t="s">
+      <c r="J42" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="189" t="s">
+      <c r="K42" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="190" t="s">
+      <c r="L42" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="187" t="s">
+      <c r="M42" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N42" s="185" t="s">
+      <c r="N42" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="186"/>
-      <c r="P42" s="185" t="s">
+      <c r="O42" s="195"/>
+      <c r="P42" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="186"/>
+      <c r="Q42" s="195"/>
       <c r="R42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="187" t="s">
+      <c r="S42" s="188" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="188"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="192"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="199"/>
       <c r="N43" s="26" t="s">
         <v>74</v>
       </c>
@@ -13016,17 +13016,17 @@
       <c r="R43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="188"/>
+      <c r="S43" s="189"/>
     </row>
     <row r="44" spans="1:20" ht="45">
       <c r="A44" s="7">
         <v>1</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>92</v>
@@ -13042,7 +13042,7 @@
       <c r="I44" s="120"/>
       <c r="J44" s="120"/>
       <c r="K44" s="127" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L44" s="120" t="s">
         <v>158</v>
@@ -13084,7 +13084,7 @@
       <c r="I45" s="121"/>
       <c r="J45" s="121"/>
       <c r="K45" s="128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L45" s="121" t="s">
         <v>158</v>
@@ -13325,24 +13325,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
@@ -13355,13 +13344,24 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13421,8 +13421,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="42" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D7" s="31"/>
       <c r="Q7"/>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="65" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D9" s="72"/>
     </row>
@@ -13531,30 +13531,30 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="176"/>
+      <c r="C10" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="176"/>
+      <c r="C11" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="98"/>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="153"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
@@ -13564,8 +13564,8 @@
         <v>132</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="99" t="s">
@@ -13598,15 +13598,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -13616,14 +13616,14 @@
       <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="142"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
       <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -13638,12 +13638,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="93"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -13658,12 +13658,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="94"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -13678,12 +13678,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="95"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -13706,15 +13706,15 @@
       <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -13725,14 +13725,14 @@
       <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="82"/>
       <c r="M23" s="89"/>
       <c r="N23" s="82"/>
@@ -13746,14 +13746,14 @@
       <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
       <c r="H24" s="89"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -13770,14 +13770,14 @@
       <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="B25" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="89"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -13794,14 +13794,14 @@
       <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="170" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
+      <c r="B26" s="163" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="89"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
@@ -13818,14 +13818,14 @@
       <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
+      <c r="B27" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="89"/>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
@@ -13837,12 +13837,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="94"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="89"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -13858,12 +13858,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="95"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="89"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
@@ -13898,29 +13898,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="177"/>
       <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="168" t="s">
+      <c r="B32" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
@@ -13936,12 +13936,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="93"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="199"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="89"/>
@@ -13957,12 +13957,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="94"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="193"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -13977,12 +13977,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="95"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="194"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
@@ -14044,28 +14044,28 @@
       <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="196" t="s">
+      <c r="A39" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="196" t="s">
+      <c r="B39" s="191" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="196" t="s">
+      <c r="D39" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="196" t="s">
+      <c r="E39" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="196" t="s">
+      <c r="F39" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="196" t="s">
+      <c r="G39" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="196" t="s">
+      <c r="H39" s="191" t="s">
         <v>93</v>
       </c>
       <c r="I39" s="204" t="s">
@@ -14077,43 +14077,43 @@
       <c r="K39" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="190" t="s">
+      <c r="L39" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="187" t="s">
+      <c r="M39" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="200" t="s">
+      <c r="N39" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="201"/>
-      <c r="P39" s="202" t="s">
+      <c r="O39" s="202"/>
+      <c r="P39" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="201"/>
+      <c r="Q39" s="202"/>
       <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="196" t="s">
+      <c r="S39" s="191" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="203"/>
-      <c r="B40" s="203"/>
+      <c r="A40" s="200"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="203"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="203"/>
-      <c r="H40" s="203"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
       <c r="I40" s="205"/>
       <c r="J40" s="207"/>
       <c r="K40" s="207"/>
       <c r="L40" s="208"/>
-      <c r="M40" s="192"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
@@ -14129,7 +14129,7 @@
       <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="203"/>
+      <c r="S40" s="200"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="51"/>
@@ -14331,25 +14331,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -14362,12 +14349,25 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
